--- a/tests/tests8/N 0.5.xlsx
+++ b/tests/tests8/N 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -82,16 +82,19 @@
     <t>Iter</t>
   </si>
   <si>
-    <t>[0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1]</t>
+    <t>[0, 0, 1, 1]</t>
   </si>
   <si>
     <t>[0, 1, 1, 1]</t>
   </si>
   <si>
     <t>[0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0]</t>
   </si>
 </sst>
 </file>
@@ -528,37 +531,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.69660767672961</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>128.7340859470355</v>
+        <v>98.78643070691845</v>
       </c>
       <c r="D2">
-        <v>11.02763376071644</v>
+        <v>11.58227239646903</v>
       </c>
       <c r="E2">
         <v>359.1179738270162</v>
       </c>
       <c r="F2">
-        <v>24.4675372125631</v>
+        <v>8.998329589980617</v>
       </c>
       <c r="G2">
-        <v>116.5429246488591</v>
+        <v>96.43775020219465</v>
       </c>
       <c r="H2">
-        <v>8.706575937830864</v>
+        <v>10.6003678748362</v>
       </c>
       <c r="Q2">
-        <v>0.4298076924011153</v>
+        <v>0.3683915965215184</v>
       </c>
       <c r="R2">
-        <v>1.344948658480476</v>
+        <v>0.6581098754554637</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0003085999999825617</v>
+        <v>0.0003129000000114956</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -566,37 +569,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.76599021161583</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>129.6584088195885</v>
+        <v>75.06396084646332</v>
       </c>
       <c r="D3">
-        <v>5.001143748173449</v>
+        <v>11.6438939213059</v>
       </c>
       <c r="E3">
         <v>359.1878273181684</v>
       </c>
       <c r="F3">
-        <v>21.37641582218802</v>
+        <v>9.409472686369403</v>
       </c>
       <c r="G3">
-        <v>100.6238241070633</v>
+        <v>73.64113488407358</v>
       </c>
       <c r="H3">
-        <v>4.23269250184326</v>
+        <v>11.34220845519322</v>
       </c>
       <c r="Q3">
-        <v>0.3406338948464569</v>
+        <v>0.3202879271474312</v>
       </c>
       <c r="R3">
-        <v>1.480622146254569</v>
+        <v>0.4018083583075803</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T3">
-        <v>0.0002847000000087974</v>
+        <v>0.0003305999999980713</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -604,37 +607,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.61977059639017</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.666721729020439</v>
+        <v>78.47908238556067</v>
       </c>
       <c r="D4">
-        <v>10.49662477878709</v>
+        <v>3.311114781934696</v>
       </c>
       <c r="E4">
         <v>0.2083789237027319</v>
       </c>
       <c r="F4">
-        <v>22.52700296883965</v>
+        <v>9.737122541720094</v>
       </c>
       <c r="G4">
-        <v>1.064159656529314</v>
+        <v>80.71126417293348</v>
       </c>
       <c r="H4">
-        <v>5.023361983686674</v>
+        <v>2.963131794075615</v>
       </c>
       <c r="Q4">
-        <v>0.2978789748881401</v>
+        <v>0.256988565769297</v>
       </c>
       <c r="R4">
-        <v>1.587408190231137</v>
+        <v>0.4144507271564665</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T4">
-        <v>0.0002620000000206346</v>
+        <v>0.0002767000000005737</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -642,37 +645,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>29.7859056158559</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>127.4666080712589</v>
+        <v>99.1436224634236</v>
       </c>
       <c r="D5">
-        <v>7.909047389129443</v>
+        <v>11.49777387141726</v>
       </c>
       <c r="E5">
         <v>359.1056857632848</v>
       </c>
       <c r="F5">
-        <v>23.9460377789874</v>
+        <v>9.090825540335604</v>
       </c>
       <c r="G5">
-        <v>108.9983555818268</v>
+        <v>97.45608973157385</v>
       </c>
       <c r="H5">
-        <v>5.918300494070958</v>
+        <v>10.56475959764594</v>
       </c>
       <c r="Q5">
-        <v>0.4529115219317533</v>
+        <v>0.4042345026505154</v>
       </c>
       <c r="R5">
-        <v>1.641316492871239</v>
+        <v>0.6201644145820053</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T5">
-        <v>0.0002570999999988999</v>
+        <v>0.000277800000006323</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -680,37 +683,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>48.51634275561545</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>98.50180485163001</v>
+        <v>174.0653710224618</v>
       </c>
       <c r="D6">
-        <v>14.72684359964884</v>
+        <v>9.566786990108668</v>
       </c>
       <c r="E6">
         <v>359.9747191464285</v>
       </c>
       <c r="F6">
-        <v>29.13592197677421</v>
+        <v>9.699570072702011</v>
       </c>
       <c r="G6">
-        <v>106.9736831455522</v>
+        <v>174.3517212806811</v>
       </c>
       <c r="H6">
-        <v>7.53877397715708</v>
+        <v>9.19031153628117</v>
       </c>
       <c r="Q6">
-        <v>0.3833652169695602</v>
+        <v>0.2429969140833977</v>
       </c>
       <c r="R6">
-        <v>2.104119230876842</v>
+        <v>0.1619314742634778</v>
       </c>
       <c r="S6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T6">
-        <v>0.0003593000000137181</v>
+        <v>0.0004406999999986283</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -718,37 +721,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>14.98969269903828</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>156.7318151119277</v>
+        <v>39.9587707961531</v>
       </c>
       <c r="D7">
-        <v>7.067191553394264</v>
+        <v>13.44878767412852</v>
       </c>
       <c r="E7">
         <v>359.7793862565575</v>
       </c>
       <c r="F7">
-        <v>14.58149359515203</v>
+        <v>9.061917784396845</v>
       </c>
       <c r="G7">
-        <v>155.6943519593833</v>
+        <v>38.55979005270795</v>
       </c>
       <c r="H7">
-        <v>6.756089982281573</v>
+        <v>12.30237660196793</v>
       </c>
       <c r="Q7">
-        <v>0.2675614226253873</v>
+        <v>0.2851846465015611</v>
       </c>
       <c r="R7">
-        <v>0.2365280021100075</v>
+        <v>0.4595817588007104</v>
       </c>
       <c r="S7" t="s">
         <v>23</v>
       </c>
       <c r="T7">
-        <v>0.0002728000000047359</v>
+        <v>0.0002935999999920114</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -756,37 +759,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>45.17870681462007</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>59.7563649542119</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="D8">
-        <v>13.21229123057832</v>
+        <v>6.983757663614126</v>
       </c>
       <c r="E8">
         <v>0.1558918367437626</v>
       </c>
       <c r="F8">
-        <v>27.81139522430985</v>
+        <v>9.07624627947359</v>
       </c>
       <c r="G8">
-        <v>70.91985091261681</v>
+        <v>162.6231561683866</v>
       </c>
       <c r="H8">
-        <v>5.58377546083117</v>
+        <v>6.030610850922837</v>
       </c>
       <c r="Q8">
-        <v>0.3704455688054856</v>
+        <v>0.246862747121529</v>
       </c>
       <c r="R8">
-        <v>2.402200103689072</v>
+        <v>0.5818414121605809</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T8">
-        <v>0.000270799999952942</v>
+        <v>0.0002877999999952863</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -794,37 +797,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.433873021828074</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>140.3853826032206</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="D9">
-        <v>9.384092314408935</v>
+        <v>12.35902550688138</v>
       </c>
       <c r="E9">
         <v>359.1547371480999</v>
       </c>
       <c r="F9">
-        <v>7.910495958847646</v>
+        <v>8.588029684676918</v>
       </c>
       <c r="G9">
-        <v>139.1147492310675</v>
+        <v>12.61332788312793</v>
       </c>
       <c r="H9">
-        <v>8.766636457780331</v>
+        <v>13.09260186304714</v>
       </c>
       <c r="Q9">
-        <v>0.4311285064062063</v>
+        <v>0.3137352311884232</v>
       </c>
       <c r="R9">
-        <v>0.511004490424572</v>
+        <v>0.6230869980018654</v>
       </c>
       <c r="S9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T9">
-        <v>0.0002508999999690786</v>
+        <v>0.0002829999999960364</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -832,37 +835,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>44.30432312563173</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>174.3373193077678</v>
+        <v>157.2172925025269</v>
       </c>
       <c r="D10">
-        <v>13.6919454021392</v>
+        <v>14.62248795385118</v>
       </c>
       <c r="E10">
         <v>359.9543976416901</v>
       </c>
       <c r="F10">
-        <v>33.94683952479367</v>
+        <v>9.495786583386268</v>
       </c>
       <c r="G10">
-        <v>178.7143130988719</v>
+        <v>157.3706396571467</v>
       </c>
       <c r="H10">
-        <v>12.37255654182107</v>
+        <v>13.73816125008121</v>
       </c>
       <c r="Q10">
-        <v>0.4237103349432636</v>
+        <v>0.2978456161474906</v>
       </c>
       <c r="R10">
-        <v>0.75136550589469</v>
+        <v>0.2504627652656645</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T10">
-        <v>0.0002645000000143227</v>
+        <v>0.0003077000000075714</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -870,37 +873,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>5.466836924856498</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>90.33742658677298</v>
+        <v>1.867347699425992</v>
       </c>
       <c r="D11">
-        <v>9.957732931341461</v>
+        <v>9.022495105784865</v>
       </c>
       <c r="E11">
         <v>359.9994457226439</v>
       </c>
       <c r="F11">
-        <v>4.791274154477107</v>
+        <v>9.84289075261252</v>
       </c>
       <c r="G11">
-        <v>88.57986530671812</v>
+        <v>1.167346597906806</v>
       </c>
       <c r="H11">
-        <v>8.286742590813406</v>
+        <v>8.29633838658426</v>
       </c>
       <c r="Q11">
-        <v>0.3206274846033092</v>
+        <v>0.2552310828837495</v>
       </c>
       <c r="R11">
-        <v>0.6695562225667258</v>
+        <v>0.2450307624089645</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T11">
-        <v>0.0002950999999598025</v>
+        <v>0.0002860999999967362</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -908,37 +911,37 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>39.70942894700357</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.73535088469227</v>
+        <v>138.8377157880143</v>
       </c>
       <c r="D12">
-        <v>11.33648234926275</v>
+        <v>3.249023392312818</v>
       </c>
       <c r="E12">
         <v>359.3342067479352</v>
       </c>
       <c r="F12">
-        <v>20.701203451868</v>
+        <v>9.825042365199055</v>
       </c>
       <c r="G12">
-        <v>0.3654038375979236</v>
+        <v>131.0053517925685</v>
       </c>
       <c r="H12">
-        <v>15.93097742446252</v>
+        <v>3.18288774216712</v>
       </c>
       <c r="Q12">
-        <v>0.4197374319362477</v>
+        <v>0.284359368331903</v>
       </c>
       <c r="R12">
-        <v>2.061711895751287</v>
+        <v>0.4423058875716533</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T12">
-        <v>0.0002719000000297456</v>
+        <v>0.0002775999999897749</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -946,37 +949,37 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13.11213599945461</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.505543467772425</v>
+        <v>32.44854399781845</v>
       </c>
       <c r="D13">
-        <v>9.632185264983447</v>
+        <v>3.233702897851495</v>
       </c>
       <c r="E13">
         <v>359.1252726293474</v>
       </c>
       <c r="F13">
-        <v>10.29161209635224</v>
+        <v>9.275905868143658</v>
       </c>
       <c r="G13">
-        <v>3.27838095054853</v>
+        <v>27.7947603648725</v>
       </c>
       <c r="H13">
-        <v>12.14402389653304</v>
+        <v>4.276132602956802</v>
       </c>
       <c r="Q13">
-        <v>0.3799325880852115</v>
+        <v>0.3530638764661649</v>
       </c>
       <c r="R13">
-        <v>1.234812987397484</v>
+        <v>1.261619023930887</v>
       </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T13">
-        <v>0.0002629999999612664</v>
+        <v>0.000290100000000848</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -984,37 +987,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11.93732790708526</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>133.2089453727729</v>
+        <v>27.74931162834103</v>
       </c>
       <c r="D14">
-        <v>7.633150151851346</v>
+        <v>11.88059635818486</v>
       </c>
       <c r="E14">
         <v>359.763507084255</v>
       </c>
       <c r="F14">
-        <v>11.53201709391465</v>
+        <v>9.382719395161583</v>
       </c>
       <c r="G14">
-        <v>132.5467870015947</v>
+        <v>26.97147907186451</v>
       </c>
       <c r="H14">
-        <v>7.312091663435529</v>
+        <v>11.26040878882703</v>
       </c>
       <c r="Q14">
-        <v>0.2914473379603145</v>
+        <v>0.2965825302745372</v>
       </c>
       <c r="R14">
-        <v>0.2374185845052787</v>
+        <v>0.3119534446719561</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
       </c>
       <c r="T14">
-        <v>0.0002504999999928259</v>
+        <v>0.0003232999999909225</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1022,37 +1025,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>39.99660847582191</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>42.75741960628422</v>
+        <v>139.9864339032876</v>
       </c>
       <c r="D15">
-        <v>13.24278532661369</v>
+        <v>5.850494640418948</v>
       </c>
       <c r="E15">
         <v>0.3561953310252952</v>
       </c>
       <c r="F15">
-        <v>26.95734437210345</v>
+        <v>9.257203601482773</v>
       </c>
       <c r="G15">
-        <v>56.75871402878139</v>
+        <v>142.3945636827082</v>
       </c>
       <c r="H15">
-        <v>4.932044769962007</v>
+        <v>5.10058335182891</v>
       </c>
       <c r="Q15">
-        <v>0.3731276300215943</v>
+        <v>0.2562995645509978</v>
       </c>
       <c r="R15">
-        <v>2.551348471662032</v>
+        <v>0.5934992915304139</v>
       </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T15">
-        <v>0.0002549999999814645</v>
+        <v>0.0002873000000107595</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1060,37 +1063,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>28.12745046977106</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>139.1697093742734</v>
+        <v>92.50980187908425</v>
       </c>
       <c r="D16">
-        <v>13.70427685724813</v>
+        <v>12.27798062495156</v>
       </c>
       <c r="E16">
         <v>359.2243304443735</v>
       </c>
       <c r="F16">
-        <v>22.98686636106645</v>
+        <v>8.876986035478865</v>
       </c>
       <c r="G16">
-        <v>134.4652856557238</v>
+        <v>90.47938454620416</v>
       </c>
       <c r="H16">
-        <v>10.71005803601408</v>
+        <v>10.9891586966474</v>
       </c>
       <c r="Q16">
-        <v>0.5387855467348777</v>
+        <v>0.4337979384963919</v>
       </c>
       <c r="R16">
-        <v>1.162348426426306</v>
+        <v>0.6942722850617431</v>
       </c>
       <c r="S16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T16">
-        <v>0.0002736000000140848</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1098,37 +1101,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>43.19679637708604</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>32.20126648577973</v>
+        <v>152.7871855083442</v>
       </c>
       <c r="D17">
-        <v>5.543632143064315</v>
+        <v>5.146751099051982</v>
       </c>
       <c r="E17">
         <v>0.156164240771768</v>
       </c>
       <c r="F17">
-        <v>31.6513188957709</v>
+        <v>9.6033422775076</v>
       </c>
       <c r="G17">
-        <v>165.215015573009</v>
+        <v>154.5209003244615</v>
       </c>
       <c r="H17">
-        <v>3.019684556495062</v>
+        <v>4.819982325232581</v>
       </c>
       <c r="Q17">
-        <v>0.3958381777275657</v>
+        <v>0.2585000243141991</v>
       </c>
       <c r="R17">
-        <v>4.948064470148084</v>
+        <v>0.3072193022330468</v>
       </c>
       <c r="S17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T17">
-        <v>0.0002749999999878128</v>
+        <v>0.0002853999999956613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1136,37 +1139,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15.04809856190925</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>94.1694014521217</v>
+        <v>40.19239424763699</v>
       </c>
       <c r="D18">
-        <v>10.50701456581181</v>
+        <v>9.277960096808114</v>
       </c>
       <c r="E18">
         <v>359.9360256394331</v>
       </c>
       <c r="F18">
-        <v>13.3535083187109</v>
+        <v>9.418643807117165</v>
       </c>
       <c r="G18">
-        <v>93.55460685155009</v>
+        <v>39.43574712725391</v>
       </c>
       <c r="H18">
-        <v>8.95318192603828</v>
+        <v>8.532462082955547</v>
       </c>
       <c r="Q18">
-        <v>0.2635330023316276</v>
+        <v>0.2495463999916185</v>
       </c>
       <c r="R18">
-        <v>0.5887625955961853</v>
+        <v>0.3326812178095605</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T18">
-        <v>0.0003856999999811705</v>
+        <v>0.0002858000000003358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1174,37 +1177,37 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>18.25992512091994</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>95.50561600895294</v>
+        <v>53.03970048367974</v>
       </c>
       <c r="D19">
-        <v>6.915207869474949</v>
+        <v>9.367041067263528</v>
       </c>
       <c r="E19">
         <v>359.8618670549893</v>
       </c>
       <c r="F19">
-        <v>16.50192945122099</v>
+        <v>9.364675908412718</v>
       </c>
       <c r="G19">
-        <v>94.88976495608694</v>
+        <v>51.98661723712512</v>
       </c>
       <c r="H19">
-        <v>5.993436383075544</v>
+        <v>8.668638950369225</v>
       </c>
       <c r="Q19">
-        <v>0.2969368296036378</v>
+        <v>0.2851871651506389</v>
       </c>
       <c r="R19">
-        <v>0.5436304979503245</v>
+        <v>0.3531464743144888</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T19">
-        <v>0.0002780000000370819</v>
+        <v>0.0003284000000007836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1212,37 +1215,37 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>34.26684087828163</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>90.98160727227172</v>
+        <v>117.0673635131265</v>
       </c>
       <c r="D20">
-        <v>13.78601470921552</v>
+        <v>9.065440484818115</v>
       </c>
       <c r="E20">
         <v>359.9602857780969</v>
       </c>
       <c r="F20">
-        <v>23.6688873992633</v>
+        <v>8.775513425402412</v>
       </c>
       <c r="G20">
-        <v>92.52258070646675</v>
+        <v>116.4123808840221</v>
       </c>
       <c r="H20">
-        <v>8.435342177635903</v>
+        <v>7.529197162907389</v>
       </c>
       <c r="Q20">
-        <v>0.3936068413127093</v>
+        <v>0.3092619910085275</v>
       </c>
       <c r="R20">
-        <v>1.534223004350662</v>
+        <v>0.6540380163860977</v>
       </c>
       <c r="S20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T20">
-        <v>0.0002540000000408327</v>
+        <v>0.0002994999999970105</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1250,37 +1253,37 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>9.389012078725322</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>137.0249490014741</v>
+        <v>17.55604831490129</v>
       </c>
       <c r="D21">
-        <v>7.46937973166327</v>
+        <v>12.13499660009828</v>
       </c>
       <c r="E21">
         <v>359.8894983686589</v>
       </c>
       <c r="F21">
-        <v>8.746998783209149</v>
+        <v>9.17931416656111</v>
       </c>
       <c r="G21">
-        <v>136.7985382331094</v>
+        <v>16.41571504074154</v>
       </c>
       <c r="H21">
-        <v>6.739000673709749</v>
+        <v>11.30806434852315</v>
       </c>
       <c r="Q21">
-        <v>0.2791565193869192</v>
+        <v>0.2789761083120323</v>
       </c>
       <c r="R21">
-        <v>0.391708773092131</v>
+        <v>0.363275750919491</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21">
-        <v>0.0002724999999941247</v>
+        <v>0.0003863000000023931</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1288,37 +1291,37 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31.46588604847734</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>161.5884710236952</v>
+        <v>105.8635441939094</v>
       </c>
       <c r="D22">
-        <v>13.91530729474708</v>
+        <v>13.77256473491301</v>
       </c>
       <c r="E22">
         <v>359.5580534436913</v>
       </c>
       <c r="F22">
-        <v>27.65019376229365</v>
+        <v>8.04082070394713</v>
       </c>
       <c r="G22">
-        <v>158.7705023623523</v>
+        <v>103.786504692781</v>
       </c>
       <c r="H22">
-        <v>11.37409729731971</v>
+        <v>10.61982112185793</v>
       </c>
       <c r="Q22">
-        <v>0.3096219628342318</v>
+        <v>0.3538434134558325</v>
       </c>
       <c r="R22">
-        <v>0.8395926005483469</v>
+        <v>1.061229456871484</v>
       </c>
       <c r="S22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T22">
-        <v>0.0002607999999781896</v>
+        <v>0.000281900000004498</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1326,37 +1329,37 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>7.192619636410728</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>52.03973876216703</v>
+        <v>8.770478545642913</v>
       </c>
       <c r="D23">
-        <v>12.2096634683123</v>
+        <v>6.469315917477802</v>
       </c>
       <c r="E23">
         <v>0.02598212475276744</v>
       </c>
       <c r="F23">
-        <v>6.591041391414214</v>
+        <v>9.66329873745226</v>
       </c>
       <c r="G23">
-        <v>50.80070820106534</v>
+        <v>7.688014790692728</v>
       </c>
       <c r="H23">
-        <v>10.92675207969851</v>
+        <v>5.939177708066064</v>
       </c>
       <c r="Q23">
-        <v>0.2894479494635896</v>
+        <v>0.270457520234709</v>
       </c>
       <c r="R23">
-        <v>0.4395520172477149</v>
+        <v>0.2945404115905527</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T23">
-        <v>0.0002814999999714018</v>
+        <v>0.0002846999999945865</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1364,37 +1367,37 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14.38072418114792</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>86.70259111740586</v>
+        <v>37.52289672459167</v>
       </c>
       <c r="D24">
-        <v>9.205380353143747</v>
+        <v>8.78017274116039</v>
       </c>
       <c r="E24">
         <v>0.04597495993259098</v>
       </c>
       <c r="F24">
-        <v>12.7447790846205</v>
+        <v>9.344137391902846</v>
       </c>
       <c r="G24">
-        <v>85.95488594274026</v>
+        <v>36.3625553693332</v>
       </c>
       <c r="H24">
-        <v>7.72720030438436</v>
+        <v>7.941658979714225</v>
       </c>
       <c r="Q24">
-        <v>0.2798561102954196</v>
+        <v>0.2678928199120681</v>
       </c>
       <c r="R24">
-        <v>0.6212302518234459</v>
+        <v>0.3885647770333494</v>
       </c>
       <c r="S24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T24">
-        <v>0.0002692000000479311</v>
+        <v>0.0002805999999964115</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1402,37 +1405,37 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28.27840477309651</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>170.4532686866665</v>
+        <v>93.11361909238606</v>
       </c>
       <c r="D25">
-        <v>12.65459759396907</v>
+        <v>14.36355124577777</v>
       </c>
       <c r="E25">
         <v>359.6665059718233</v>
       </c>
       <c r="F25">
-        <v>26.09471655825268</v>
+        <v>8.300257721275946</v>
       </c>
       <c r="G25">
-        <v>168.4444114124764</v>
+        <v>91.34379206095097</v>
       </c>
       <c r="H25">
-        <v>10.83801471248136</v>
+        <v>11.53611656837004</v>
       </c>
       <c r="Q25">
-        <v>0.2862131132937146</v>
+        <v>0.3380935964621479</v>
       </c>
       <c r="R25">
-        <v>0.6211747368976791</v>
+        <v>0.9030292740012578</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T25">
-        <v>0.0002629999999612664</v>
+        <v>0.0006163000000043439</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1440,37 +1443,37 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>48.20077865011633</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>125.9121689909237</v>
+        <v>172.8031146004653</v>
       </c>
       <c r="D26">
-        <v>14.99867292623879</v>
+        <v>11.39414459939491</v>
       </c>
       <c r="E26">
         <v>359.3353939136754</v>
       </c>
       <c r="F26">
-        <v>26.55614327822763</v>
+        <v>9.48632883331717</v>
       </c>
       <c r="G26">
-        <v>123.057959589783</v>
+        <v>172.4380049159258</v>
       </c>
       <c r="H26">
-        <v>7.207260063241996</v>
+        <v>10.7336190992914</v>
       </c>
       <c r="Q26">
-        <v>0.7733701126991562</v>
+        <v>0.5465372351922434</v>
       </c>
       <c r="R26">
-        <v>2.284609748562834</v>
+        <v>0.4058176470105911</v>
       </c>
       <c r="S26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T26">
-        <v>0.0002550000000383079</v>
+        <v>0.0002798000000012735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1478,37 +1481,37 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>44.15558614822454</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>104.8098471610608</v>
+        <v>156.6223445928981</v>
       </c>
       <c r="D27">
-        <v>7.78838940701069</v>
+        <v>9.987323144070718</v>
       </c>
       <c r="E27">
         <v>359.8858634551669</v>
       </c>
       <c r="F27">
-        <v>29.6657085836809</v>
+        <v>9.221233940165533</v>
       </c>
       <c r="G27">
-        <v>124.6691943953437</v>
+        <v>156.9450779464401</v>
       </c>
       <c r="H27">
-        <v>4.753519975824386</v>
+        <v>8.96185060830302</v>
       </c>
       <c r="Q27">
-        <v>0.4318659874831139</v>
+        <v>0.2859350705274566</v>
       </c>
       <c r="R27">
-        <v>2.046107503999988</v>
+        <v>0.423090353997755</v>
       </c>
       <c r="S27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T27">
-        <v>0.0002700000000004366</v>
+        <v>0.0004706999999939399</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1516,37 +1519,37 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18.85707286812369</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>93.49046627495413</v>
+        <v>55.42829147249475</v>
       </c>
       <c r="D28">
-        <v>12.68297661537973</v>
+        <v>9.232697751663608</v>
       </c>
       <c r="E28">
         <v>359.90200339417</v>
       </c>
       <c r="F28">
-        <v>16.52505584122156</v>
+        <v>9.600812793416793</v>
       </c>
       <c r="G28">
-        <v>93.43000845809969</v>
+        <v>55.22197360280951</v>
       </c>
       <c r="H28">
-        <v>10.6568488293681</v>
+        <v>8.644953860262415</v>
       </c>
       <c r="Q28">
-        <v>0.2609227843960705</v>
+        <v>0.2373504506664876</v>
       </c>
       <c r="R28">
-        <v>0.6315033679691682</v>
+        <v>0.2553356869862138</v>
       </c>
       <c r="S28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T28">
-        <v>0.0002547000000276967</v>
+        <v>0.0002865999999954738</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1554,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>24.15746347335031</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>146.6250732890195</v>
+        <v>76.62985389340125</v>
       </c>
       <c r="D29">
-        <v>12.3539729019968</v>
+        <v>12.77500488593463</v>
       </c>
       <c r="E29">
         <v>359.3571972923839</v>
       </c>
       <c r="F29">
-        <v>22.26714965791892</v>
+        <v>8.929124476187898</v>
       </c>
       <c r="G29">
-        <v>143.1545758865139</v>
+        <v>74.88433549345875</v>
       </c>
       <c r="H29">
-        <v>11.13753296420471</v>
+        <v>11.50771126946105</v>
       </c>
       <c r="Q29">
-        <v>0.3658189246534976</v>
+        <v>0.3527565007486134</v>
       </c>
       <c r="R29">
-        <v>0.6240429606770705</v>
+        <v>0.6308204606919878</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T29">
-        <v>0.0002625999999850137</v>
+        <v>0.0002842999999899121</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1592,37 +1595,37 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>37.80561840301036</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>101.0231284189754</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="D30">
-        <v>6.249670920092409</v>
+        <v>9.734875227931694</v>
       </c>
       <c r="E30">
         <v>359.776833811065</v>
       </c>
       <c r="F30">
-        <v>27.24309718770902</v>
+        <v>8.877071111078729</v>
       </c>
       <c r="G30">
-        <v>101.7420650596506</v>
+        <v>130.612334001815</v>
       </c>
       <c r="H30">
-        <v>3.866448803751886</v>
+        <v>8.300254047047462</v>
       </c>
       <c r="Q30">
-        <v>0.3960192779948621</v>
+        <v>0.3211686355053398</v>
       </c>
       <c r="R30">
-        <v>1.492754424096915</v>
+        <v>0.6266229566879831</v>
       </c>
       <c r="S30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T30">
-        <v>0.0002769000000171218</v>
+        <v>0.0002936000000062222</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1630,37 +1633,37 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>43.86919935065373</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>51.28307374097282</v>
+        <v>155.4767974026149</v>
       </c>
       <c r="D31">
-        <v>5.73256388083736</v>
+        <v>6.418871582731521</v>
       </c>
       <c r="E31">
         <v>0.2087410631522755</v>
       </c>
       <c r="F31">
-        <v>29.64812061978293</v>
+        <v>9.136545452228104</v>
       </c>
       <c r="G31">
-        <v>160.2186566516863</v>
+        <v>157.7253450637513</v>
       </c>
       <c r="H31">
-        <v>3.73198166861755</v>
+        <v>5.565037841138555</v>
       </c>
       <c r="Q31">
-        <v>0.4903314306858705</v>
+        <v>0.3106981700497567</v>
       </c>
       <c r="R31">
-        <v>4.188322171715829</v>
+        <v>0.5848562740234092</v>
       </c>
       <c r="S31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T31">
-        <v>0.0002613999999994121</v>
+        <v>0.0002775999999897749</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1668,37 +1671,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>33.98645912307507</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>68.53472813432097</v>
+        <v>115.9458364923003</v>
       </c>
       <c r="D32">
-        <v>11.63047905335669</v>
+        <v>7.568981875621398</v>
       </c>
       <c r="E32">
         <v>0.6320263323882001</v>
       </c>
       <c r="F32">
-        <v>23.97479906081868</v>
+        <v>8.75339326974472</v>
       </c>
       <c r="G32">
-        <v>87.58102899518295</v>
+        <v>117.2803447287343</v>
       </c>
       <c r="H32">
-        <v>5.49736605339969</v>
+        <v>5.955044284055594</v>
       </c>
       <c r="Q32">
-        <v>0.3940558320088088</v>
+        <v>0.3045078832967231</v>
       </c>
       <c r="R32">
-        <v>2.443454969027039</v>
+        <v>0.9322132618981276</v>
       </c>
       <c r="S32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T32">
-        <v>0.0002993999999603147</v>
+        <v>0.000267100000002074</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1706,37 +1709,37 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>17.8724219747232</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>172.45900197342</v>
+        <v>51.48968789889281</v>
       </c>
       <c r="D33">
-        <v>12.70312932218878</v>
+        <v>14.497266798228</v>
       </c>
       <c r="E33">
         <v>0.2073786071257917</v>
       </c>
       <c r="F33">
-        <v>15.53916799569511</v>
+        <v>8.914834338268083</v>
       </c>
       <c r="G33">
-        <v>174.9118809818471</v>
+        <v>50.26506835249962</v>
       </c>
       <c r="H33">
-        <v>10.74924857440057</v>
+        <v>12.37218107735765</v>
       </c>
       <c r="Q33">
-        <v>0.2951280335910757</v>
+        <v>0.2884793862127073</v>
       </c>
       <c r="R33">
-        <v>0.7152782722786518</v>
+        <v>0.6297842509565771</v>
       </c>
       <c r="S33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T33">
-        <v>0.0002577999999857639</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1744,37 +1747,37 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>43.65001702818679</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>67.08800789555039</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="D34">
-        <v>10.55128777998597</v>
+        <v>7.472533859703359</v>
       </c>
       <c r="E34">
         <v>0.1744472254947149</v>
       </c>
       <c r="F34">
-        <v>28.16420176456052</v>
+        <v>8.799755406723163</v>
       </c>
       <c r="G34">
-        <v>84.74128192347749</v>
+        <v>156.4320623878706</v>
       </c>
       <c r="H34">
-        <v>4.664029224849044</v>
+        <v>6.151325026118789</v>
       </c>
       <c r="Q34">
-        <v>0.3822775370799315</v>
+        <v>0.2612270581540879</v>
       </c>
       <c r="R34">
-        <v>2.471145456050174</v>
+        <v>0.7314741239786238</v>
       </c>
       <c r="S34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T34">
-        <v>0.0002708000000097854</v>
+        <v>0.0002766000000065105</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1782,37 +1785,37 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>16.18295573469785</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>80.99557578914319</v>
+        <v>44.73182293879139</v>
       </c>
       <c r="D35">
-        <v>9.109408029965408</v>
+        <v>8.399705052609546</v>
       </c>
       <c r="E35">
         <v>0.1594267525540688</v>
       </c>
       <c r="F35">
-        <v>14.50387187615007</v>
+        <v>9.555939256835845</v>
       </c>
       <c r="G35">
-        <v>81.72678075949293</v>
+        <v>44.36078061096033</v>
       </c>
       <c r="H35">
-        <v>7.563062722061534</v>
+        <v>7.579897224451786</v>
       </c>
       <c r="Q35">
-        <v>0.2620992466461737</v>
+        <v>0.2490118682644515</v>
       </c>
       <c r="R35">
-        <v>0.6554453977173316</v>
+        <v>0.3671418627260037</v>
       </c>
       <c r="S35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T35">
-        <v>0.0002769000000171218</v>
+        <v>0.0002776000000039858</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1820,37 +1823,37 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>6.735275639663435</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>140.4180828944415</v>
+        <v>6.941102558653737</v>
       </c>
       <c r="D36">
-        <v>5.927037553341333</v>
+        <v>12.3612055262961</v>
       </c>
       <c r="E36">
         <v>359.8780824496862</v>
       </c>
       <c r="F36">
-        <v>6.237534143105202</v>
+        <v>9.263958863113752</v>
       </c>
       <c r="G36">
-        <v>140.3022964581238</v>
+        <v>6.093961130406639</v>
       </c>
       <c r="H36">
-        <v>5.248367874118762</v>
+        <v>11.56034261420696</v>
       </c>
       <c r="Q36">
-        <v>0.2735569635931483</v>
+        <v>0.266182766045534</v>
       </c>
       <c r="R36">
-        <v>0.4428019322848175</v>
+        <v>0.3363024833059867</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T36">
-        <v>0.0002572999999870262</v>
+        <v>0.000290100000000848</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1858,37 +1861,37 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>25.61247267008407</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>55.50292925368409</v>
+        <v>82.4498906803363</v>
       </c>
       <c r="D37">
-        <v>7.314870450355623</v>
+        <v>6.70019528357894</v>
       </c>
       <c r="E37">
         <v>0.9448683550439242</v>
       </c>
       <c r="F37">
-        <v>20.52997546050861</v>
+        <v>9.006871607238843</v>
       </c>
       <c r="G37">
-        <v>105.2925617887278</v>
+        <v>84.2435544317923</v>
       </c>
       <c r="H37">
-        <v>2.83277740928773</v>
+        <v>5.110974155594939</v>
       </c>
       <c r="Q37">
-        <v>0.4041793248906975</v>
+        <v>0.3298527160046691</v>
       </c>
       <c r="R37">
-        <v>3.343531443732435</v>
+        <v>1.039555756198816</v>
       </c>
       <c r="S37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T37">
-        <v>0.0002516999999784275</v>
+        <v>0.0002715999999907126</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1896,37 +1899,37 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>37.78282362180765</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>108.2905582266384</v>
+        <v>131.1312944872306</v>
       </c>
       <c r="D38">
-        <v>14.52180667406014</v>
+        <v>10.21937054844256</v>
       </c>
       <c r="E38">
         <v>359.6617933671228</v>
       </c>
       <c r="F38">
-        <v>25.59661487363516</v>
+        <v>8.638453024053563</v>
       </c>
       <c r="G38">
-        <v>106.3350682553931</v>
+        <v>130.3292542144146</v>
       </c>
       <c r="H38">
-        <v>9.064312842958831</v>
+        <v>8.436362159419978</v>
       </c>
       <c r="Q38">
-        <v>0.4422998032617909</v>
+        <v>0.3546873757693579</v>
       </c>
       <c r="R38">
-        <v>1.610528203390375</v>
+        <v>0.7677106765835725</v>
       </c>
       <c r="S38" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T38">
-        <v>0.0002685999999698652</v>
+        <v>0.0002767999999946369</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1934,37 +1937,37 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>47.50234712857881</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>83.53767137479336</v>
+        <v>170.0093885143152</v>
       </c>
       <c r="D39">
-        <v>6.927950289571577</v>
+        <v>8.569178091652891</v>
       </c>
       <c r="E39">
         <v>0.02723180616874827</v>
       </c>
       <c r="F39">
-        <v>31.17397729152975</v>
+        <v>9.52729382196074</v>
       </c>
       <c r="G39">
-        <v>126.9066239376664</v>
+        <v>170.6472076078597</v>
       </c>
       <c r="H39">
-        <v>3.843919903608461</v>
+        <v>8.012921223101962</v>
       </c>
       <c r="Q39">
-        <v>0.3787769603625181</v>
+        <v>0.2478619198121635</v>
       </c>
       <c r="R39">
-        <v>2.77682295330102</v>
+        <v>0.2638219872329743</v>
       </c>
       <c r="S39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T39">
-        <v>0.0002559999999789397</v>
+        <v>0.000273700000008148</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1972,37 +1975,37 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>22.31479037825347</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>154.7474123863114</v>
+        <v>69.25916151301388</v>
       </c>
       <c r="D40">
-        <v>14.4419963580742</v>
+        <v>13.31649415908743</v>
       </c>
       <c r="E40">
         <v>359.4956471759416</v>
       </c>
       <c r="F40">
-        <v>21.15797403261567</v>
+        <v>9.038068888797861</v>
       </c>
       <c r="G40">
-        <v>153.2302095236762</v>
+        <v>67.90967482136431</v>
       </c>
       <c r="H40">
-        <v>13.57194221088872</v>
+        <v>12.09420896404705</v>
       </c>
       <c r="Q40">
-        <v>0.3103117762874169</v>
+        <v>0.2945426948616431</v>
       </c>
       <c r="R40">
-        <v>0.4010314138667943</v>
+        <v>0.5496155034670922</v>
       </c>
       <c r="S40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T40">
-        <v>0.0003512000000114313</v>
+        <v>0.0002828999999877624</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2010,37 +2013,37 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>29.61001202654096</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>143.6218238308689</v>
+        <v>98.44004810616384</v>
       </c>
       <c r="D41">
-        <v>13.20401879898381</v>
+        <v>12.57478825539126</v>
       </c>
       <c r="E41">
         <v>359.297580216989</v>
       </c>
       <c r="F41">
-        <v>24.68716793312466</v>
+        <v>8.571509609482806</v>
       </c>
       <c r="G41">
-        <v>139.5956780274255</v>
+        <v>96.49508551529509</v>
       </c>
       <c r="H41">
-        <v>10.47091185821481</v>
+        <v>10.60245271775718</v>
       </c>
       <c r="Q41">
-        <v>0.4692948022354781</v>
+        <v>0.4419727712678489</v>
       </c>
       <c r="R41">
-        <v>1.070828375340306</v>
+        <v>0.8544317660226867</v>
       </c>
       <c r="S41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T41">
-        <v>0.0002668000000198845</v>
+        <v>0.0002744999999890751</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2048,37 +2051,37 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>23.34591626361287</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>9.965887220134814</v>
+        <v>73.3836650544515</v>
       </c>
       <c r="D42">
-        <v>12.88534877486753</v>
+        <v>3.664392481342321</v>
       </c>
       <c r="E42">
         <v>0.3037738486056159</v>
       </c>
       <c r="F42">
-        <v>21.37462194161376</v>
+        <v>9.75807900734196</v>
       </c>
       <c r="G42">
-        <v>9.444607498896282</v>
+        <v>76.41261180266115</v>
       </c>
       <c r="H42">
-        <v>6.106556452419531</v>
+        <v>3.197252423119446</v>
       </c>
       <c r="Q42">
-        <v>0.3284676281719025</v>
+        <v>0.2780927901461804</v>
       </c>
       <c r="R42">
-        <v>1.544919501603355</v>
+        <v>0.5106895509035035</v>
       </c>
       <c r="S42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T42">
-        <v>0.0002698999999779517</v>
+        <v>0.0002768000000088477</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2086,37 +2089,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>16.29156306852231</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>8.297247721070116</v>
+        <v>45.16625227408922</v>
       </c>
       <c r="D43">
-        <v>11.76816241110558</v>
+        <v>3.553149848071341</v>
       </c>
       <c r="E43">
         <v>0.1353561615336547</v>
       </c>
       <c r="F43">
-        <v>15.34523470599547</v>
+        <v>9.809305352218956</v>
       </c>
       <c r="G43">
-        <v>7.177831103750848</v>
+        <v>45.49238630124967</v>
       </c>
       <c r="H43">
-        <v>9.276130765956852</v>
+        <v>3.222553337836361</v>
       </c>
       <c r="Q43">
-        <v>0.2955031130797179</v>
+        <v>0.2732385808279117</v>
       </c>
       <c r="R43">
-        <v>0.6880373410280738</v>
+        <v>0.3063828874448303</v>
       </c>
       <c r="S43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T43">
-        <v>0.0005816999999979089</v>
+        <v>0.000275299999998424</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2124,37 +2127,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>21.85430534813131</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>171.1285751537849</v>
+        <v>67.41722139252525</v>
       </c>
       <c r="D44">
-        <v>12.31993941811405</v>
+        <v>14.40857167691899</v>
       </c>
       <c r="E44">
         <v>359.7516429234944</v>
       </c>
       <c r="F44">
-        <v>20.92298064239738</v>
+        <v>8.886283965327285</v>
       </c>
       <c r="G44">
-        <v>170.480077031827</v>
+        <v>65.80607734227212</v>
       </c>
       <c r="H44">
-        <v>11.54125966872237</v>
+        <v>12.74567162144192</v>
       </c>
       <c r="Q44">
-        <v>0.2777125881786792</v>
+        <v>0.2754571335156359</v>
       </c>
       <c r="R44">
-        <v>0.3073390776075972</v>
+        <v>0.5765133890433867</v>
       </c>
       <c r="S44" t="s">
         <v>24</v>
       </c>
       <c r="T44">
-        <v>0.0002718000000072607</v>
+        <v>0.0002774000000016486</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2162,37 +2165,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10.17745548754005</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>109.6319770703066</v>
+        <v>20.70982195016021</v>
       </c>
       <c r="D45">
-        <v>6.333909641859883</v>
+        <v>10.30879847135378</v>
       </c>
       <c r="E45">
         <v>359.8713000373277</v>
       </c>
       <c r="F45">
-        <v>9.715205240012944</v>
+        <v>9.421983372778254</v>
       </c>
       <c r="G45">
-        <v>108.8821403154056</v>
+        <v>19.79613567644345</v>
       </c>
       <c r="H45">
-        <v>5.929300881872038</v>
+        <v>9.791696893134983</v>
       </c>
       <c r="Q45">
-        <v>0.2738607941476588</v>
+        <v>0.2744367748495222</v>
       </c>
       <c r="R45">
-        <v>0.2863187600251988</v>
+        <v>0.2767562220584123</v>
       </c>
       <c r="S45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T45">
-        <v>0.0002632000000062362</v>
+        <v>0.0002841999999958489</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2200,37 +2203,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>42.56789668995422</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>18.86329878657655</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="D46">
-        <v>12.44640481679518</v>
+        <v>4.257553252438437</v>
       </c>
       <c r="E46">
         <v>0.3753073586279415</v>
       </c>
       <c r="F46">
-        <v>30.43897230677371</v>
+        <v>9.429637210289187</v>
       </c>
       <c r="G46">
-        <v>165.1972659221958</v>
+        <v>155.4110402864606</v>
       </c>
       <c r="H46">
-        <v>2.802268060436321</v>
+        <v>3.88020227925185</v>
       </c>
       <c r="Q46">
-        <v>0.4174646879615853</v>
+        <v>0.2836321697131113</v>
       </c>
       <c r="R46">
-        <v>6.164194480426824</v>
+        <v>0.5389510082314739</v>
       </c>
       <c r="S46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T46">
-        <v>0.0002777000000264707</v>
+        <v>0.0003059000000007472</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2238,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>49.50551810640201</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>98.91805083205058</v>
+        <v>178.022072425608</v>
       </c>
       <c r="D47">
-        <v>7.814473019550628</v>
+        <v>9.594536722136706</v>
       </c>
       <c r="E47">
         <v>359.9868126135752</v>
       </c>
       <c r="F47">
-        <v>31.4820320766281</v>
+        <v>9.797400209235857</v>
       </c>
       <c r="G47">
-        <v>125.1825572462195</v>
+        <v>178.2104759764978</v>
       </c>
       <c r="H47">
-        <v>4.377514516445773</v>
+        <v>9.34297204758991</v>
       </c>
       <c r="Q47">
-        <v>0.3630829573075628</v>
+        <v>0.2326384391624161</v>
       </c>
       <c r="R47">
-        <v>2.36624227979667</v>
+        <v>0.1073225045084278</v>
       </c>
       <c r="S47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T47">
-        <v>0.0002570999999988999</v>
+        <v>0.0002824000000032356</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2276,37 +2279,37 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>40.27245578625878</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>114.2700670894914</v>
+        <v>141.0898231450351</v>
       </c>
       <c r="D48">
-        <v>7.490430915157489</v>
+        <v>10.61800447263276</v>
       </c>
       <c r="E48">
         <v>359.7075620800647</v>
       </c>
       <c r="F48">
-        <v>27.73887921011565</v>
+        <v>8.535823872346905</v>
       </c>
       <c r="G48">
-        <v>116.1287946946743</v>
+        <v>140.8162040851412</v>
       </c>
       <c r="H48">
-        <v>4.513888945710952</v>
+        <v>8.618828329111729</v>
       </c>
       <c r="Q48">
-        <v>0.3963754130980897</v>
+        <v>0.3422174167829866</v>
       </c>
       <c r="R48">
-        <v>1.631725137000616</v>
+        <v>0.7946836107241328</v>
       </c>
       <c r="S48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T48">
-        <v>0.0002587000000175976</v>
+        <v>0.0002645000000001119</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2314,37 +2317,37 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>10.10698123521423</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>175.4069569985622</v>
+        <v>20.42792494085692</v>
       </c>
       <c r="D49">
-        <v>12.28734633501106</v>
+        <v>14.69379713323748</v>
       </c>
       <c r="E49">
         <v>0.4240047378830676</v>
       </c>
       <c r="F49">
-        <v>9.885359683646163</v>
+        <v>9.601902123581869</v>
       </c>
       <c r="G49">
-        <v>176.0595470255741</v>
+        <v>19.85170303831314</v>
       </c>
       <c r="H49">
-        <v>11.93049170955985</v>
+        <v>12.54359077071537</v>
       </c>
       <c r="Q49">
-        <v>0.3685933178010857</v>
+        <v>0.2601125906368651</v>
       </c>
       <c r="R49">
-        <v>0.2314680090181025</v>
+        <v>0.5525921016792626</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T49">
-        <v>0.0002723999999716398</v>
+        <v>0.0002972000000056596</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2352,37 +2355,37 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>5.787062191901868</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>160.4831880924465</v>
+        <v>3.148248767607473</v>
       </c>
       <c r="D50">
-        <v>7.848611674739184</v>
+        <v>13.6988792061631</v>
       </c>
       <c r="E50">
         <v>0.4968156599642271</v>
       </c>
       <c r="F50">
-        <v>5.650992421440641</v>
+        <v>10.41752950205281</v>
       </c>
       <c r="G50">
-        <v>161.1194115898167</v>
+        <v>1.814135346431885</v>
       </c>
       <c r="H50">
-        <v>7.550713962372096</v>
+        <v>11.09161043870267</v>
       </c>
       <c r="Q50">
-        <v>0.3531772999338043</v>
+        <v>0.2955174893684568</v>
       </c>
       <c r="R50">
-        <v>0.2741860905951706</v>
+        <v>0.7029628995793296</v>
       </c>
       <c r="S50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T50">
-        <v>0.0002541000000064741</v>
+        <v>0.0003589000000090437</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2390,37 +2393,37 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>18.54340051351615</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>44.4711297531266</v>
+        <v>54.17360205406462</v>
       </c>
       <c r="D51">
-        <v>14.26335135059176</v>
+        <v>5.964741983541773</v>
       </c>
       <c r="E51">
         <v>0.5215795391032959</v>
       </c>
       <c r="F51">
-        <v>15.47625325893214</v>
+        <v>9.58865766246344</v>
       </c>
       <c r="G51">
-        <v>45.43420797295806</v>
+        <v>55.72718639176341</v>
       </c>
       <c r="H51">
-        <v>9.725321831392588</v>
+        <v>4.90262879192798</v>
       </c>
       <c r="Q51">
-        <v>0.3375717472410391</v>
+        <v>0.2980701811532987</v>
       </c>
       <c r="R51">
-        <v>1.225544981312178</v>
+        <v>0.6829546405789282</v>
       </c>
       <c r="S51" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T51">
-        <v>0.000265500000011798</v>
+        <v>0.0002942999999930862</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2428,37 +2431,37 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>27.25707404921096</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>41.05495880088052</v>
+        <v>89.02829619684385</v>
       </c>
       <c r="D52">
-        <v>7.554739237572114</v>
+        <v>5.736997253392035</v>
       </c>
       <c r="E52">
         <v>0.7801760543418236</v>
       </c>
       <c r="F52">
-        <v>22.12585377366227</v>
+        <v>9.119535184603093</v>
       </c>
       <c r="G52">
-        <v>97.08402814069417</v>
+        <v>91.35496310321294</v>
       </c>
       <c r="H52">
-        <v>2.112876597286865</v>
+        <v>4.499548333885888</v>
       </c>
       <c r="Q52">
-        <v>0.390020127636217</v>
+        <v>0.3216325169554815</v>
       </c>
       <c r="R52">
-        <v>3.710336277601986</v>
+        <v>0.9391955019155002</v>
       </c>
       <c r="S52" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T52">
-        <v>0.0002776999999696272</v>
+        <v>0.0002992000000006101</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2466,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>35.40791369765985</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>8.048192796530287</v>
+        <v>121.6316547906394</v>
       </c>
       <c r="D53">
-        <v>8.433036725425923</v>
+        <v>3.536546186435352</v>
       </c>
       <c r="E53">
         <v>0.1452515866743192</v>
       </c>
       <c r="F53">
-        <v>29.44845823516864</v>
+        <v>9.769776175325912</v>
       </c>
       <c r="G53">
-        <v>356.7971992858532</v>
+        <v>123.8682057871695</v>
       </c>
       <c r="H53">
-        <v>0.2770780505187899</v>
+        <v>3.338821723536804</v>
       </c>
       <c r="Q53">
-        <v>0.3567953344923677</v>
+        <v>0.2587287818103202</v>
       </c>
       <c r="R53">
-        <v>3.0159613734505</v>
+        <v>0.2703695984839091</v>
       </c>
       <c r="S53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T53">
-        <v>0.000258900000005724</v>
+        <v>0.0003102999999953227</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2504,37 +2507,37 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>42.03996533194064</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4.70123668257612</v>
+        <v>148.1598613277625</v>
       </c>
       <c r="D54">
-        <v>7.107706399312939</v>
+        <v>3.313415778838408</v>
       </c>
       <c r="E54">
         <v>359.7402620796929</v>
       </c>
       <c r="F54">
-        <v>28.3052927277376</v>
+        <v>9.886546503880938</v>
       </c>
       <c r="G54">
-        <v>358.5782799573325</v>
+        <v>145.6514083233422</v>
       </c>
       <c r="H54">
-        <v>6.012238140447314</v>
+        <v>3.229070200326782</v>
       </c>
       <c r="Q54">
-        <v>0.3478173049994552</v>
+        <v>0.236368687721952</v>
       </c>
       <c r="R54">
-        <v>1.147827000149222</v>
+        <v>0.2101941677341118</v>
       </c>
       <c r="S54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T54">
-        <v>0.0002539000000183478</v>
+        <v>0.0002894999999938364</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2542,37 +2545,37 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>43.09980832445602</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>101.0097972477061</v>
+        <v>152.3992332978241</v>
       </c>
       <c r="D55">
-        <v>9.548754024057528</v>
+        <v>9.733986483180409</v>
       </c>
       <c r="E55">
         <v>359.8970675665747</v>
       </c>
       <c r="F55">
-        <v>28.4480785315806</v>
+        <v>8.90517808294647</v>
       </c>
       <c r="G55">
-        <v>112.318894752106</v>
+        <v>152.8350885205006</v>
       </c>
       <c r="H55">
-        <v>5.457392122656771</v>
+        <v>8.314603694567527</v>
       </c>
       <c r="Q55">
-        <v>0.4182750532645548</v>
+        <v>0.2952019138324982</v>
       </c>
       <c r="R55">
-        <v>1.946218845990097</v>
+        <v>0.5836428430525334</v>
       </c>
       <c r="S55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T55">
-        <v>0.0002703999999766893</v>
+        <v>0.0002769999999969741</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2580,37 +2583,37 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>23.90823352133483</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>65.38310945371541</v>
+        <v>75.6329340853393</v>
       </c>
       <c r="D56">
-        <v>6.848766877614517</v>
+        <v>7.358873963581027</v>
       </c>
       <c r="E56">
         <v>0.9261053723064553</v>
       </c>
       <c r="F56">
-        <v>19.88693035658192</v>
+        <v>9.182174474433005</v>
       </c>
       <c r="G56">
-        <v>101.5827191643673</v>
+        <v>76.80646056192226</v>
       </c>
       <c r="H56">
-        <v>3.402542132927767</v>
+        <v>5.856309481245009</v>
       </c>
       <c r="Q56">
-        <v>0.3644978702187665</v>
+        <v>0.3064300044465066</v>
       </c>
       <c r="R56">
-        <v>2.674818331813646</v>
+        <v>0.9076288139333415</v>
       </c>
       <c r="S56" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T56">
-        <v>0.0002713000000085231</v>
+        <v>0.001406400000007579</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2618,37 +2621,37 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>9.18987290023361</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>174.8980655981618</v>
+        <v>16.75949160093444</v>
       </c>
       <c r="D57">
-        <v>9.838599804636461</v>
+        <v>14.65987103987745</v>
       </c>
       <c r="E57">
         <v>0.8118655573170027</v>
       </c>
       <c r="F57">
-        <v>8.556775945736078</v>
+        <v>9.987372301470614</v>
       </c>
       <c r="G57">
-        <v>176.7232930672186</v>
+        <v>16.26051119159749</v>
       </c>
       <c r="H57">
-        <v>8.925754606130489</v>
+        <v>11.6663005394543</v>
       </c>
       <c r="Q57">
-        <v>0.7207067394972568</v>
+        <v>0.3126580976905451</v>
       </c>
       <c r="R57">
-        <v>0.5953700003855101</v>
+        <v>0.7280497510283419</v>
       </c>
       <c r="S57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T57">
-        <v>0.0002633000000287211</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2656,37 +2659,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>49.28863327441595</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60.0142078826376</v>
+        <v>177.1545330976638</v>
       </c>
       <c r="D58">
-        <v>11.73701624669138</v>
+        <v>7.00094719217584</v>
       </c>
       <c r="E58">
         <v>0.5188215877512897</v>
       </c>
       <c r="F58">
-        <v>28.41341401280785</v>
+        <v>8.593936329467047</v>
       </c>
       <c r="G58">
-        <v>123.9407234921765</v>
+        <v>181.9291365603671</v>
       </c>
       <c r="H58">
-        <v>3.852350874522958</v>
+        <v>5.63085503895879</v>
       </c>
       <c r="Q58">
-        <v>0.4808314273812038</v>
+        <v>0.8389278880624899</v>
       </c>
       <c r="R58">
-        <v>4.113195932991982</v>
+        <v>0.9726668524477636</v>
       </c>
       <c r="S58" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T58">
-        <v>0.0002676999999948748</v>
+        <v>0.0002860999999967362</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2694,37 +2697,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>8.930733930597878</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>41.48587791931104</v>
+        <v>15.72293572239151</v>
       </c>
       <c r="D59">
-        <v>9.110610706389128</v>
+        <v>5.765725194620736</v>
       </c>
       <c r="E59">
         <v>0.06552607867345203</v>
       </c>
       <c r="F59">
-        <v>8.447622439140586</v>
+        <v>9.721563458483411</v>
       </c>
       <c r="G59">
-        <v>40.52359887522923</v>
+        <v>14.75910038601453</v>
       </c>
       <c r="H59">
-        <v>8.383077225366639</v>
+        <v>5.276729488212127</v>
       </c>
       <c r="Q59">
-        <v>0.269095334207975</v>
+        <v>0.261039046582925</v>
       </c>
       <c r="R59">
-        <v>0.3302365249596457</v>
+        <v>0.2989104673462544</v>
       </c>
       <c r="S59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T59">
-        <v>0.0002559999999789397</v>
+        <v>0.0002911000000125341</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2732,37 +2735,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>21.42975123602123</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>81.21706486080083</v>
+        <v>65.7190049440849</v>
       </c>
       <c r="D60">
-        <v>9.960603487677895</v>
+        <v>8.414470990720055</v>
       </c>
       <c r="E60">
         <v>0.3800930730872643</v>
       </c>
       <c r="F60">
-        <v>17.93199795572571</v>
+        <v>9.330418671521974</v>
       </c>
       <c r="G60">
-        <v>84.9975450680021</v>
+        <v>65.47060785926016</v>
       </c>
       <c r="H60">
-        <v>7.210351167539293</v>
+        <v>7.303743764365025</v>
       </c>
       <c r="Q60">
-        <v>0.3020655596140386</v>
+        <v>0.2729765586805742</v>
       </c>
       <c r="R60">
-        <v>1.15185032587292</v>
+        <v>0.5428351508078905</v>
       </c>
       <c r="S60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T60">
-        <v>0.000254900000015823</v>
+        <v>0.0002872999999965486</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2770,37 +2773,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>46.58158020084914</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28.41670449626255</v>
+        <v>166.3263208033966</v>
       </c>
       <c r="D61">
-        <v>13.66915076815797</v>
+        <v>4.894446966417504</v>
       </c>
       <c r="E61">
         <v>0.8346417606973641</v>
       </c>
       <c r="F61">
-        <v>29.00721093221481</v>
+        <v>9.006888717401258</v>
       </c>
       <c r="G61">
-        <v>169.9747227518612</v>
+        <v>174.7925642112654</v>
       </c>
       <c r="H61">
-        <v>4.771549301937027</v>
+        <v>4.311676841255813</v>
       </c>
       <c r="Q61">
-        <v>0.5848425777171399</v>
+        <v>0.4723764397365886</v>
       </c>
       <c r="R61">
-        <v>6.003727663773661</v>
+        <v>0.8835041090138355</v>
       </c>
       <c r="S61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T61">
-        <v>0.0002714999999966494</v>
+        <v>0.0002790000000061355</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2808,37 +2811,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>18.53929985209784</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>33.65024694153804</v>
+        <v>54.15719940839138</v>
       </c>
       <c r="D62">
-        <v>8.231826769682193</v>
+        <v>5.243349796102536</v>
       </c>
       <c r="E62">
         <v>0.4608854966065385</v>
       </c>
       <c r="F62">
-        <v>16.74855118327691</v>
+        <v>9.629162782499593</v>
       </c>
       <c r="G62">
-        <v>37.90666738409981</v>
+        <v>55.65394348641411</v>
       </c>
       <c r="H62">
-        <v>5.051039555664739</v>
+        <v>4.369693945757096</v>
       </c>
       <c r="Q62">
-        <v>0.3324630903023599</v>
+        <v>0.3057124729968649</v>
       </c>
       <c r="R62">
-        <v>1.348621447048576</v>
+        <v>0.6310004259789865</v>
       </c>
       <c r="S62" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T62">
-        <v>0.000258900000005724</v>
+        <v>0.000279299999988325</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2846,37 +2849,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>42.10112641609768</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>32.64295184949596</v>
+        <v>148.4045056643907</v>
       </c>
       <c r="D63">
-        <v>13.77326768207053</v>
+        <v>5.176196789966397</v>
       </c>
       <c r="E63">
         <v>0.2157477757799077</v>
       </c>
       <c r="F63">
-        <v>27.2811092008882</v>
+        <v>9.51081595005531</v>
       </c>
       <c r="G63">
-        <v>45.49981962463341</v>
+        <v>150.542196990144</v>
       </c>
       <c r="H63">
-        <v>4.217903818191637</v>
+        <v>4.7577574818668</v>
       </c>
       <c r="Q63">
-        <v>0.4231349715784028</v>
+        <v>0.2648074952018374</v>
       </c>
       <c r="R63">
-        <v>2.696445894569528</v>
+        <v>0.3910077574541704</v>
       </c>
       <c r="S63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T63">
-        <v>0.0003856999999811705</v>
+        <v>0.0003692000000086182</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2884,37 +2887,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>6.518961969044375</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>88.03935143380524</v>
+        <v>6.075847876177498</v>
       </c>
       <c r="D64">
-        <v>13.46085097280883</v>
+        <v>8.869290095587015</v>
       </c>
       <c r="E64">
         <v>0.006162713151847251</v>
       </c>
       <c r="F64">
-        <v>5.20077895069331</v>
+        <v>9.463295007217392</v>
       </c>
       <c r="G64">
-        <v>85.49320292458813</v>
+        <v>5.124659476811684</v>
       </c>
       <c r="H64">
-        <v>10.08234343827537</v>
+        <v>8.42323286687227</v>
       </c>
       <c r="Q64">
-        <v>0.3336104100925587</v>
+        <v>0.2481217562271346</v>
       </c>
       <c r="R64">
-        <v>1.029676053885076</v>
+        <v>0.240502035357133</v>
       </c>
       <c r="S64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T64">
-        <v>0.0002658000000224092</v>
+        <v>0.0002889000000010356</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2922,37 +2925,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>29.92734601252639</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>71.32462086696601</v>
+        <v>99.70938405010556</v>
       </c>
       <c r="D65">
-        <v>5.481267725800767</v>
+        <v>7.7549747244644</v>
       </c>
       <c r="E65">
         <v>1.069489326759043</v>
       </c>
       <c r="F65">
-        <v>22.86392266439539</v>
+        <v>8.502561651723456</v>
       </c>
       <c r="G65">
-        <v>164.902781864856</v>
+        <v>101.6290119508418</v>
       </c>
       <c r="H65">
-        <v>5.165495395043935</v>
+        <v>5.558974108386646</v>
       </c>
       <c r="Q65">
-        <v>0.5552264728065531</v>
+        <v>0.373213966835003</v>
       </c>
       <c r="R65">
-        <v>3.144214818522693</v>
+        <v>1.272868960700672</v>
       </c>
       <c r="S65" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T65">
-        <v>0.0002757999999971616</v>
+        <v>0.0003437999999960084</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2960,37 +2963,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>22.05943364451965</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>102.0776700923305</v>
+        <v>68.23773457807862</v>
       </c>
       <c r="D66">
-        <v>10.95592512657122</v>
+        <v>9.805178006155369</v>
       </c>
       <c r="E66">
         <v>359.4498385303842</v>
       </c>
       <c r="F66">
-        <v>18.59439427860244</v>
+        <v>9.17513338737429</v>
       </c>
       <c r="G66">
-        <v>97.46542345254962</v>
+        <v>66.1535476469481</v>
       </c>
       <c r="H66">
-        <v>9.214294516966048</v>
+        <v>9.260259836582721</v>
       </c>
       <c r="Q66">
-        <v>0.401861969920002</v>
+        <v>0.35196642154788</v>
       </c>
       <c r="R66">
-        <v>0.9120597805148298</v>
+        <v>0.466059137082963</v>
       </c>
       <c r="S66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T66">
-        <v>0.0002762999999958993</v>
+        <v>0.0002794000000108099</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2998,37 +3001,37 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>14.83902725662427</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>5.6524895104645</v>
+        <v>39.35610902649709</v>
       </c>
       <c r="D67">
-        <v>7.871252773397034</v>
+        <v>3.376832634030967</v>
       </c>
       <c r="E67">
         <v>0.4168324115663374</v>
       </c>
       <c r="F67">
-        <v>15.30100994005067</v>
+        <v>9.946777183243771</v>
       </c>
       <c r="G67">
-        <v>3.249368882678485</v>
+        <v>42.4343890266204</v>
       </c>
       <c r="H67">
-        <v>4.541021820802173</v>
+        <v>2.609146608775526</v>
       </c>
       <c r="Q67">
-        <v>0.2734950995825018</v>
+        <v>0.2607289206591189</v>
       </c>
       <c r="R67">
-        <v>1.273893846304659</v>
+        <v>0.758383273035788</v>
       </c>
       <c r="S67" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T67">
-        <v>0.0004162000000178523</v>
+        <v>0.0002768000000088477</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3036,37 +3039,37 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>11.94294101590741</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>24.06592092601187</v>
+        <v>27.77176406362965</v>
       </c>
       <c r="D68">
-        <v>8.626854661768876</v>
+        <v>4.604394728400791</v>
       </c>
       <c r="E68">
         <v>359.2921928179678</v>
       </c>
       <c r="F68">
-        <v>10.86939471740774</v>
+        <v>9.378881107575429</v>
       </c>
       <c r="G68">
-        <v>22.33107928213995</v>
+        <v>25.41400158026712</v>
       </c>
       <c r="H68">
-        <v>9.262340824084527</v>
+        <v>5.407837660386588</v>
       </c>
       <c r="Q68">
-        <v>0.3388245276842756</v>
+        <v>0.3294553461670697</v>
       </c>
       <c r="R68">
-        <v>0.5542981389004132</v>
+        <v>0.7756526701361359</v>
       </c>
       <c r="S68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T68">
-        <v>0.0002875000000130967</v>
+        <v>0.000290899999995986</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3074,37 +3077,37 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>29.56331434707404</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>154.5941899064446</v>
+        <v>98.25325738829615</v>
       </c>
       <c r="D69">
-        <v>11.85892586566579</v>
+        <v>13.30627932709631</v>
       </c>
       <c r="E69">
         <v>359.4357389238899</v>
       </c>
       <c r="F69">
-        <v>25.57545897640902</v>
+        <v>8.427161385210892</v>
       </c>
       <c r="G69">
-        <v>150.3060496991804</v>
+        <v>96.42265785117699</v>
       </c>
       <c r="H69">
-        <v>9.497457811583065</v>
+        <v>10.94915779581105</v>
       </c>
       <c r="Q69">
-        <v>0.3852174154103266</v>
+        <v>0.4036331166936197</v>
       </c>
       <c r="R69">
-        <v>0.9709138485919178</v>
+        <v>0.891828896700568</v>
       </c>
       <c r="S69" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T69">
-        <v>0.0002739999999903375</v>
+        <v>0.0002748999999937496</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3112,37 +3115,37 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>16.67171614767995</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>7.804989209142046</v>
+        <v>46.68686459071981</v>
       </c>
       <c r="D70">
-        <v>10.82030342126604</v>
+        <v>3.520332613942803</v>
       </c>
       <c r="E70">
         <v>0.4722381821858267</v>
       </c>
       <c r="F70">
-        <v>16.4730502215121</v>
+        <v>9.764156693013451</v>
       </c>
       <c r="G70">
-        <v>5.999210397874123</v>
+        <v>50.22075857055647</v>
       </c>
       <c r="H70">
-        <v>5.801989233633117</v>
+        <v>2.662581065583128</v>
       </c>
       <c r="Q70">
-        <v>0.3076800654414516</v>
+        <v>0.288724813286119</v>
       </c>
       <c r="R70">
-        <v>1.342531658048107</v>
+        <v>0.8548550964288426</v>
       </c>
       <c r="S70" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T70">
-        <v>0.0002746999999772015</v>
+        <v>0.0002847000000087974</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3150,37 +3153,37 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>18.33121227525951</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>145.6321888211988</v>
+        <v>53.32484910103803</v>
       </c>
       <c r="D71">
-        <v>8.502525252234115</v>
+        <v>12.70881258807992</v>
       </c>
       <c r="E71">
         <v>359.5422464507259</v>
       </c>
       <c r="F71">
-        <v>17.53416179520838</v>
+        <v>9.034995571408871</v>
       </c>
       <c r="G71">
-        <v>142.5566161497206</v>
+        <v>51.80120482343244</v>
       </c>
       <c r="H71">
-        <v>7.984356600097542</v>
+        <v>11.69632843326891</v>
       </c>
       <c r="Q71">
-        <v>0.3210154261919166</v>
+        <v>0.3281395207850399</v>
       </c>
       <c r="R71">
-        <v>0.4161525038684476</v>
+        <v>0.5125332654153805</v>
       </c>
       <c r="S71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T71">
-        <v>0.000249699999983477</v>
+        <v>0.0002817000000021608</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3188,37 +3191,37 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>46.73662423785314</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>157.0367329936588</v>
+        <v>166.9464969514126</v>
       </c>
       <c r="D72">
-        <v>10.84631272595553</v>
+        <v>13.46911553291059</v>
       </c>
       <c r="E72">
         <v>359.574501295849</v>
       </c>
       <c r="F72">
-        <v>30.94694862591022</v>
+        <v>9.617477791098278</v>
       </c>
       <c r="G72">
-        <v>157.7085261600148</v>
+        <v>166.710097058089</v>
       </c>
       <c r="H72">
-        <v>6.149523925955291</v>
+        <v>12.89909949148681</v>
       </c>
       <c r="Q72">
-        <v>0.4707460751701277</v>
+        <v>0.341749485424977</v>
       </c>
       <c r="R72">
-        <v>1.76881969893919</v>
+        <v>0.2818389450609753</v>
       </c>
       <c r="S72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T72">
-        <v>0.0002756999999746768</v>
+        <v>0.0002805000000023483</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3226,37 +3229,37 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>13.35088736683427</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>69.5878745475726</v>
+        <v>33.40354946733707</v>
       </c>
       <c r="D73">
-        <v>13.3189619863717</v>
+        <v>7.63919163650484</v>
       </c>
       <c r="E73">
         <v>0.2153015748648967</v>
       </c>
       <c r="F73">
-        <v>11.55634979332786</v>
+        <v>9.620391333740539</v>
       </c>
       <c r="G73">
-        <v>68.8836450110464</v>
+        <v>33.18181129564229</v>
       </c>
       <c r="H73">
-        <v>10.7911261190411</v>
+        <v>6.685770909834731</v>
       </c>
       <c r="Q73">
-        <v>0.2639883961592195</v>
+        <v>0.2448911688061461</v>
       </c>
       <c r="R73">
-        <v>0.7699340363211238</v>
+        <v>0.4346531945505208</v>
       </c>
       <c r="S73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T73">
-        <v>0.0002582999999845015</v>
+        <v>0.0002846000000005233</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3264,37 +3267,37 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>9.803219101488983</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>123.1816739901637</v>
+        <v>19.21287640595593</v>
       </c>
       <c r="D74">
-        <v>10.34962617391087</v>
+        <v>11.21211159934425</v>
       </c>
       <c r="E74">
         <v>359.8407272504671</v>
       </c>
       <c r="F74">
-        <v>8.310414144036232</v>
+        <v>9.274359675177395</v>
       </c>
       <c r="G74">
-        <v>122.2657306529945</v>
+        <v>18.1962558471429</v>
       </c>
       <c r="H74">
-        <v>8.281806183531289</v>
+        <v>10.60510307641736</v>
       </c>
       <c r="Q74">
-        <v>0.3592042042717188</v>
+        <v>0.302936564367187</v>
       </c>
       <c r="R74">
-        <v>0.816003266903345</v>
+        <v>0.3215203665077995</v>
       </c>
       <c r="S74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T74">
-        <v>0.0002893999999855623</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3302,37 +3305,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>33.92104621037356</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>96.95176757441044</v>
+        <v>115.6841848414942</v>
       </c>
       <c r="D75">
-        <v>10.1189798245863</v>
+        <v>9.463451171627362</v>
       </c>
       <c r="E75">
         <v>359.711593474345</v>
       </c>
       <c r="F75">
-        <v>26.05011816486256</v>
+        <v>9.188877768059847</v>
       </c>
       <c r="G75">
-        <v>93.09030640359488</v>
+        <v>114.6219536582182</v>
       </c>
       <c r="H75">
-        <v>7.35773492376378</v>
+        <v>8.521044303254408</v>
       </c>
       <c r="Q75">
-        <v>0.3233544294977638</v>
+        <v>0.2674229612660626</v>
       </c>
       <c r="R75">
-        <v>1.237560501931023</v>
+        <v>0.4828040657801208</v>
       </c>
       <c r="S75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T75">
-        <v>0.0002777999999921121</v>
+        <v>0.0002673999999984744</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3340,37 +3343,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>14.09910320436086</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>141.218568739901</v>
+        <v>36.39641281744344</v>
       </c>
       <c r="D76">
-        <v>13.60537239237031</v>
+        <v>12.41457124932673</v>
       </c>
       <c r="E76">
         <v>359.6958272530962</v>
       </c>
       <c r="F76">
-        <v>12.10351797759948</v>
+        <v>9.334116143749558</v>
       </c>
       <c r="G76">
-        <v>140.9596194831325</v>
+        <v>35.55575349414243</v>
       </c>
       <c r="H76">
-        <v>11.2575458428913</v>
+        <v>11.72709954463683</v>
       </c>
       <c r="Q76">
-        <v>0.3023361773078337</v>
+        <v>0.2577568348401668</v>
       </c>
       <c r="R76">
-        <v>0.7498320418099989</v>
+        <v>0.3464807972672524</v>
       </c>
       <c r="S76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T76">
-        <v>0.0002514999999903011</v>
+        <v>0.0003181000000012091</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3378,37 +3381,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>30.60230990536605</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>11.87356096609964</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="D77">
-        <v>13.88110669900257</v>
+        <v>3.791570731073309</v>
       </c>
       <c r="E77">
         <v>0.3547510669880397</v>
       </c>
       <c r="F77">
-        <v>25.50701979634951</v>
+        <v>9.529828429454572</v>
       </c>
       <c r="G77">
-        <v>13.33410152574735</v>
+        <v>105.9462642244248</v>
       </c>
       <c r="H77">
-        <v>4.134181639334199</v>
+        <v>3.287766682574816</v>
       </c>
       <c r="Q77">
-        <v>0.305816287562848</v>
+        <v>0.2461842016485692</v>
       </c>
       <c r="R77">
-        <v>2.158131690064279</v>
+        <v>0.5876622086523202</v>
       </c>
       <c r="S77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T77">
-        <v>0.0002613999999994121</v>
+        <v>0.0002848999999969237</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3416,37 +3419,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>18.98734098903599</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>147.417699729393</v>
+        <v>55.94936395614395</v>
       </c>
       <c r="D78">
-        <v>8.347526245715251</v>
+        <v>12.8278466486262</v>
       </c>
       <c r="E78">
         <v>359.5298493446405</v>
       </c>
       <c r="F78">
-        <v>18.55402085261134</v>
+        <v>9.218454548667319</v>
       </c>
       <c r="G78">
-        <v>143.603404962321</v>
+        <v>54.68738046883053</v>
       </c>
       <c r="H78">
-        <v>8.012755277701082</v>
+        <v>12.06430985232271</v>
       </c>
       <c r="Q78">
-        <v>0.2873242354799818</v>
+        <v>0.2945159755136298</v>
       </c>
       <c r="R78">
-        <v>0.3511914449583275</v>
+        <v>0.4281493795767011</v>
       </c>
       <c r="S78" t="s">
         <v>23</v>
       </c>
       <c r="T78">
-        <v>0.0002704000000335327</v>
+        <v>0.0002781000000027234</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3454,37 +3457,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>46.35990643096318</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>115.595207986294</v>
+        <v>165.4396257238527</v>
       </c>
       <c r="D79">
-        <v>12.53712229729177</v>
+        <v>10.70634719908626</v>
       </c>
       <c r="E79">
         <v>359.8877775739622</v>
       </c>
       <c r="F79">
-        <v>29.18025253613865</v>
+        <v>9.666130243571954</v>
       </c>
       <c r="G79">
-        <v>122.9819557540253</v>
+        <v>165.5070757229037</v>
       </c>
       <c r="H79">
-        <v>7.08329573045734</v>
+        <v>10.26281931673168</v>
       </c>
       <c r="Q79">
-        <v>0.45112961937418</v>
+        <v>0.2733254303277078</v>
       </c>
       <c r="R79">
-        <v>1.917878813386165</v>
+        <v>0.1889533904902759</v>
       </c>
       <c r="S79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T79">
-        <v>0.0002744000000234337</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3492,37 +3495,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>7.168155237510696</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>122.5733424961892</v>
+        <v>8.672620950042782</v>
       </c>
       <c r="D80">
-        <v>12.98696067903802</v>
+        <v>11.17155616641261</v>
       </c>
       <c r="E80">
         <v>359.9389769313877</v>
       </c>
       <c r="F80">
-        <v>5.588590925102804</v>
+        <v>9.448908065621413</v>
       </c>
       <c r="G80">
-        <v>121.5221237484159</v>
+        <v>7.966219839380999</v>
       </c>
       <c r="H80">
-        <v>9.359882563446694</v>
+        <v>10.39256578910189</v>
       </c>
       <c r="Q80">
-        <v>0.4368442142897353</v>
+        <v>0.2890012678515538</v>
       </c>
       <c r="R80">
-        <v>1.107015839517827</v>
+        <v>0.2990889506802709</v>
       </c>
       <c r="S80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T80">
-        <v>0.0003546000000369531</v>
+        <v>0.0002760999999935621</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3530,37 +3533,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>27.53006568531715</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>84.25213667066072</v>
+        <v>90.1202627412686</v>
       </c>
       <c r="D81">
-        <v>10.00782525642232</v>
+        <v>8.616809111377382</v>
       </c>
       <c r="E81">
         <v>1.658179410385036</v>
       </c>
       <c r="F81">
-        <v>18.59770053727516</v>
+        <v>8.316368383751643</v>
       </c>
       <c r="G81">
-        <v>127.6016769818256</v>
+        <v>91.84737509524598</v>
       </c>
       <c r="H81">
-        <v>4.506196525208994</v>
+        <v>5.748955317551801</v>
       </c>
       <c r="Q81">
-        <v>0.6055390273380251</v>
+        <v>0.4423526039292622</v>
       </c>
       <c r="R81">
-        <v>3.413379340594846</v>
+        <v>1.570380073544269</v>
       </c>
       <c r="S81" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T81">
-        <v>0.0002541000000064741</v>
+        <v>0.0003442000000006828</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3568,37 +3571,37 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>28.48620724251147</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>125.8931460626395</v>
+        <v>93.94482897004586</v>
       </c>
       <c r="D82">
-        <v>7.698689710729503</v>
+        <v>11.39287640417597</v>
       </c>
       <c r="E82">
         <v>359.0500735319259</v>
       </c>
       <c r="F82">
-        <v>23.81556854778141</v>
+        <v>9.216544148379077</v>
       </c>
       <c r="G82">
-        <v>104.9032740996057</v>
+        <v>92.01543988020531</v>
       </c>
       <c r="H82">
-        <v>6.159592502883842</v>
+        <v>10.75119780635072</v>
       </c>
       <c r="Q82">
-        <v>0.4292429216431797</v>
+        <v>0.3783515168410123</v>
       </c>
       <c r="R82">
-        <v>1.535289366135123</v>
+        <v>0.5570992973032765</v>
       </c>
       <c r="S82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T82">
-        <v>0.0002791000000001986</v>
+        <v>0.0002842000000100597</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3606,37 +3609,37 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>20.99386030123564</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>61.35279780407429</v>
+        <v>63.97544120494257</v>
       </c>
       <c r="D83">
-        <v>14.3310644228157</v>
+        <v>7.09018652027162</v>
       </c>
       <c r="E83">
         <v>0.67995017110934</v>
       </c>
       <c r="F83">
-        <v>16.50219330902049</v>
+        <v>9.312100200700252</v>
       </c>
       <c r="G83">
-        <v>63.15621260050862</v>
+        <v>64.67925883359302</v>
       </c>
       <c r="H83">
-        <v>9.244897359045751</v>
+        <v>5.769040728624686</v>
       </c>
       <c r="Q83">
-        <v>0.3215862666884398</v>
+        <v>0.2839152106715906</v>
       </c>
       <c r="R83">
-        <v>1.458921286257496</v>
+        <v>0.7680689995852812</v>
       </c>
       <c r="S83" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T83">
-        <v>0.0002824000000032356</v>
+        <v>0.0002896999999961736</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3644,37 +3647,37 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>17.3851551410602</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>115.0615369665485</v>
+        <v>49.54062056424078</v>
       </c>
       <c r="D84">
-        <v>11.2389921233538</v>
+        <v>10.67076913110323</v>
       </c>
       <c r="E84">
         <v>359.579674798622</v>
       </c>
       <c r="F84">
-        <v>16.11652115599836</v>
+        <v>9.307868231951987</v>
       </c>
       <c r="G84">
-        <v>112.7439267790509</v>
+        <v>47.83758066182376</v>
       </c>
       <c r="H84">
-        <v>10.42744085201572</v>
+        <v>10.4021318672842</v>
       </c>
       <c r="Q84">
-        <v>0.2762412372095108</v>
+        <v>0.2569191466127563</v>
       </c>
       <c r="R84">
-        <v>0.4651633442089829</v>
+        <v>0.3259502450858328</v>
       </c>
       <c r="S84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T84">
-        <v>0.0002529000000208725</v>
+        <v>0.0003322999999966214</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3682,37 +3685,37 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>16.5669092197313</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>123.081764952793</v>
+        <v>46.26763687892519</v>
       </c>
       <c r="D85">
-        <v>11.63641757569115</v>
+        <v>11.20545099685287</v>
       </c>
       <c r="E85">
         <v>359.5753435569815</v>
       </c>
       <c r="F85">
-        <v>15.15095376054337</v>
+        <v>9.287129302444598</v>
       </c>
       <c r="G85">
-        <v>121.7258098381517</v>
+        <v>45.06721210999358</v>
       </c>
       <c r="H85">
-        <v>10.51984822132793</v>
+        <v>10.64756658608429</v>
       </c>
       <c r="Q85">
-        <v>0.3026427404659431</v>
+        <v>0.2825295418843908</v>
       </c>
       <c r="R85">
-        <v>0.522397985688468</v>
+        <v>0.37945370546155</v>
       </c>
       <c r="S85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T85">
-        <v>0.0002577999999857639</v>
+        <v>0.0002904000000114593</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3720,37 +3723,37 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>7.071844713416848</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66.64361690080786</v>
+        <v>8.287378853667391</v>
       </c>
       <c r="D86">
-        <v>7.423182674914047</v>
+        <v>7.442907793387191</v>
       </c>
       <c r="E86">
         <v>0.06580610098779141</v>
       </c>
       <c r="F86">
-        <v>6.717821767375506</v>
+        <v>9.844690227564762</v>
       </c>
       <c r="G86">
-        <v>65.78309845747673</v>
+        <v>7.461035750699492</v>
       </c>
       <c r="H86">
-        <v>6.828378227887901</v>
+        <v>6.572262764199692</v>
       </c>
       <c r="Q86">
-        <v>0.2698326964003918</v>
+        <v>0.2636800984041901</v>
       </c>
       <c r="R86">
-        <v>0.3217192153155993</v>
+        <v>0.3554362227570972</v>
       </c>
       <c r="S86" t="s">
         <v>24</v>
       </c>
       <c r="T86">
-        <v>0.0002656999999999243</v>
+        <v>0.0002855999999979986</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3758,37 +3761,37 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>32.91682165489652</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>91.61155235617326</v>
+        <v>111.6672866195861</v>
       </c>
       <c r="D87">
-        <v>7.982448417587287</v>
+        <v>9.107436823744884</v>
       </c>
       <c r="E87">
         <v>359.9115746394606</v>
       </c>
       <c r="F87">
-        <v>25.13467320579105</v>
+        <v>8.999181221932739</v>
       </c>
       <c r="G87">
-        <v>92.29215407352289</v>
+        <v>110.6559458259028</v>
       </c>
       <c r="H87">
-        <v>5.426420625476776</v>
+        <v>7.892297111588981</v>
       </c>
       <c r="Q87">
-        <v>0.3275118204390374</v>
+        <v>0.2777747977339146</v>
       </c>
       <c r="R87">
-        <v>1.233667333738488</v>
+        <v>0.5477499869945577</v>
       </c>
       <c r="S87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T87">
-        <v>0.0002594000000044616</v>
+        <v>0.0003537000000051194</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3796,37 +3799,37 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>14.11731291330007</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>37.27675873097517</v>
+        <v>36.46925165320029</v>
       </c>
       <c r="D88">
-        <v>6.526377433002459</v>
+        <v>5.485117248731678</v>
       </c>
       <c r="E88">
         <v>0.2981428594836462</v>
       </c>
       <c r="F88">
-        <v>13.3295374680269</v>
+        <v>9.740402070348203</v>
       </c>
       <c r="G88">
-        <v>38.5230409019731</v>
+        <v>36.64478789427215</v>
       </c>
       <c r="H88">
-        <v>5.096106107454509</v>
+        <v>4.724756155405272</v>
       </c>
       <c r="Q88">
-        <v>0.2843080502535905</v>
+        <v>0.2747489644781745</v>
       </c>
       <c r="R88">
-        <v>0.7465772565665213</v>
+        <v>0.4687468873581916</v>
       </c>
       <c r="S88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T88">
-        <v>0.0002665000000092732</v>
+        <v>0.0002828000000079101</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3834,37 +3837,37 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>34.53188833548306</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>171.8822478443809</v>
+        <v>118.1275533419322</v>
       </c>
       <c r="D89">
-        <v>14.70876034993816</v>
+        <v>14.45881652295873</v>
       </c>
       <c r="E89">
         <v>359.8138122395735</v>
       </c>
       <c r="F89">
-        <v>29.90902953357431</v>
+        <v>7.162258343396445</v>
       </c>
       <c r="G89">
-        <v>172.9668147449103</v>
+        <v>116.4269772015138</v>
       </c>
       <c r="H89">
-        <v>12.67505582259943</v>
+        <v>9.390557299231679</v>
       </c>
       <c r="Q89">
-        <v>0.31651091220967</v>
+        <v>0.4502185712953869</v>
       </c>
       <c r="R89">
-        <v>0.6424435170646312</v>
+        <v>1.438345061760354</v>
       </c>
       <c r="S89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T89">
-        <v>0.0002764000000183842</v>
+        <v>0.0002871000000084223</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3872,37 +3875,37 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>34.13979722088605</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>91.28694387835442</v>
+        <v>116.5591888835442</v>
       </c>
       <c r="D90">
-        <v>10.28341380152239</v>
+        <v>9.085796258556961</v>
       </c>
       <c r="E90">
         <v>359.9465578479241</v>
       </c>
       <c r="F90">
-        <v>25.91012517227292</v>
+        <v>9.174613372196733</v>
       </c>
       <c r="G90">
-        <v>97.88199135335762</v>
+        <v>116.2941828105545</v>
       </c>
       <c r="H90">
-        <v>6.848812600540749</v>
+        <v>8.015361023976283</v>
       </c>
       <c r="Q90">
-        <v>0.3642163359330732</v>
+        <v>0.2886776425426448</v>
       </c>
       <c r="R90">
-        <v>1.414985752170155</v>
+        <v>0.4520854674000545</v>
       </c>
       <c r="S90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T90">
-        <v>0.0002618999999981497</v>
+        <v>0.0002760999999935621</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3910,37 +3913,37 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>27.48624442109753</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>46.06868417610064</v>
+        <v>89.94497768439012</v>
       </c>
       <c r="D91">
-        <v>7.581006309885745</v>
+        <v>6.071245611740043</v>
       </c>
       <c r="E91">
         <v>0.8468650132735551</v>
       </c>
       <c r="F91">
-        <v>22.01402001022493</v>
+        <v>9.049257798304614</v>
       </c>
       <c r="G91">
-        <v>112.2832079388924</v>
+        <v>92.569114949183</v>
       </c>
       <c r="H91">
-        <v>2.436151591100915</v>
+        <v>4.692281515644038</v>
       </c>
       <c r="Q91">
-        <v>0.4201926889163082</v>
+        <v>0.336943855379264</v>
       </c>
       <c r="R91">
-        <v>3.895521865446574</v>
+        <v>1.00360257517465</v>
       </c>
       <c r="S91" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T91">
-        <v>0.0002632000000062362</v>
+        <v>0.0003011000000014974</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3948,37 +3951,37 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>11.88743894447661</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>28.38341898169331</v>
+        <v>27.54975577790644</v>
       </c>
       <c r="D92">
-        <v>14.85491114183153</v>
+        <v>4.892227932112887</v>
       </c>
       <c r="E92">
         <v>0.1122433340996691</v>
       </c>
       <c r="F92">
-        <v>11.06176728587948</v>
+        <v>9.924992303903879</v>
       </c>
       <c r="G92">
-        <v>27.70915983676473</v>
+        <v>27.5039476524109</v>
       </c>
       <c r="H92">
-        <v>13.12235168014786</v>
+        <v>4.535566751359864</v>
       </c>
       <c r="Q92">
-        <v>0.3006159403250757</v>
+        <v>0.2722162337910514</v>
       </c>
       <c r="R92">
-        <v>0.4522600402738066</v>
+        <v>0.2239663972652378</v>
       </c>
       <c r="S92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T92">
-        <v>0.0002688000000148349</v>
+        <v>0.0002836999999971113</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3986,37 +3989,37 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>14.04516182530883</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>59.22368396859275</v>
+        <v>36.1806473012353</v>
       </c>
       <c r="D93">
-        <v>7.964996887010721</v>
+        <v>6.948245597906183</v>
       </c>
       <c r="E93">
         <v>0.3030605088673829</v>
       </c>
       <c r="F93">
-        <v>12.78821764583702</v>
+        <v>9.594277046265315</v>
       </c>
       <c r="G93">
-        <v>59.80616092420792</v>
+        <v>35.83385986831451</v>
       </c>
       <c r="H93">
-        <v>6.47704320941478</v>
+        <v>6.010328959548721</v>
       </c>
       <c r="Q93">
-        <v>0.2524601642158524</v>
+        <v>0.2440648724991764</v>
       </c>
       <c r="R93">
-        <v>0.7065110695625879</v>
+        <v>0.4895205780879417</v>
       </c>
       <c r="S93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T93">
-        <v>0.0002566000000001623</v>
+        <v>0.0002994999999970105</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4024,37 +4027,37 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>44.86462247469316</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>141.9446820246704</v>
+        <v>159.4584898987726</v>
       </c>
       <c r="D94">
-        <v>9.247281314751076</v>
+        <v>12.4629788016447</v>
       </c>
       <c r="E94">
         <v>359.8848503791089</v>
       </c>
       <c r="F94">
-        <v>31.47034774004021</v>
+        <v>9.405010826982492</v>
       </c>
       <c r="G94">
-        <v>153.8943170542126</v>
+        <v>159.6186161355353</v>
       </c>
       <c r="H94">
-        <v>6.931304118522998</v>
+        <v>11.55752411640532</v>
       </c>
       <c r="Q94">
-        <v>0.3899388736945195</v>
+        <v>0.2670862581045225</v>
       </c>
       <c r="R94">
-        <v>1.451233256342151</v>
+        <v>0.3135842898228465</v>
       </c>
       <c r="S94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T94">
-        <v>0.0002586999999607542</v>
+        <v>0.0002779999999944494</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4062,37 +4065,37 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>32.28594519994139</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>118.3520823512068</v>
+        <v>109.1437807997656</v>
       </c>
       <c r="D95">
-        <v>8.0724100934357</v>
+        <v>10.89013882341379</v>
       </c>
       <c r="E95">
         <v>359.1849009598281</v>
       </c>
       <c r="F95">
-        <v>25.20659087435839</v>
+        <v>9.137417486175989</v>
       </c>
       <c r="G95">
-        <v>100.2531499756912</v>
+        <v>107.4562330602354</v>
       </c>
       <c r="H95">
-        <v>6.039762599391091</v>
+        <v>9.977420850029201</v>
       </c>
       <c r="Q95">
-        <v>0.4617580029491147</v>
+        <v>0.4019274341948318</v>
       </c>
       <c r="R95">
-        <v>1.65120338168305</v>
+        <v>0.5992557500036138</v>
       </c>
       <c r="S95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T95">
-        <v>0.0002673999999842636</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4100,37 +4103,37 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>37.37236038097813</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>109.2998116119581</v>
+        <v>129.4894415239125</v>
       </c>
       <c r="D96">
-        <v>11.89861614578764</v>
+        <v>10.28665410746387</v>
       </c>
       <c r="E96">
         <v>359.6282733922433</v>
       </c>
       <c r="F96">
-        <v>27.49907045097894</v>
+        <v>9.088365413625558</v>
       </c>
       <c r="G96">
-        <v>106.5220956336628</v>
+        <v>128.6997674810572</v>
       </c>
       <c r="H96">
-        <v>8.177517271604916</v>
+        <v>9.118862859815032</v>
       </c>
       <c r="Q96">
-        <v>0.3866081790124324</v>
+        <v>0.3090795397184771</v>
       </c>
       <c r="R96">
-        <v>1.384520516612213</v>
+        <v>0.5484248188450019</v>
       </c>
       <c r="S96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T96">
-        <v>0.0002610000000231594</v>
+        <v>0.000438000000002603</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4138,37 +4141,37 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15.29615694006055</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>34.32384335235293</v>
+        <v>41.18462776024221</v>
       </c>
       <c r="D97">
-        <v>13.86359670982399</v>
+        <v>5.288256223490196</v>
       </c>
       <c r="E97">
         <v>0.3321444497762412</v>
       </c>
       <c r="F97">
-        <v>13.40569055789337</v>
+        <v>9.647427494257089</v>
       </c>
       <c r="G97">
-        <v>33.39501024837341</v>
+        <v>40.98731454905619</v>
       </c>
       <c r="H97">
-        <v>10.89759601045455</v>
+        <v>4.560541343837311</v>
       </c>
       <c r="Q97">
-        <v>0.2931053818314819</v>
+        <v>0.2709068950339985</v>
       </c>
       <c r="R97">
-        <v>0.8470959514706714</v>
+        <v>0.4907550535072831</v>
       </c>
       <c r="S97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T97">
-        <v>0.0002716999999847758</v>
+        <v>0.0002905000000055225</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4176,37 +4179,37 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>14.6609100057572</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>163.7104268414994</v>
+        <v>38.64364002302879</v>
       </c>
       <c r="D98">
-        <v>13.17235373163457</v>
+        <v>13.91402845609996</v>
       </c>
       <c r="E98">
         <v>359.965076112617</v>
       </c>
       <c r="F98">
-        <v>12.69669787539041</v>
+        <v>9.181836955187531</v>
       </c>
       <c r="G98">
-        <v>164.7017796695344</v>
+        <v>37.72881074869713</v>
       </c>
       <c r="H98">
-        <v>10.97443666045742</v>
+        <v>12.46797176271381</v>
       </c>
       <c r="Q98">
-        <v>0.2899273161730694</v>
+        <v>0.2871028909222965</v>
       </c>
       <c r="R98">
-        <v>0.6739542078790106</v>
+        <v>0.427782129241194</v>
       </c>
       <c r="S98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T98">
-        <v>0.0002617000000100234</v>
+        <v>0.0002920999999957985</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4214,37 +4217,37 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>42.66248559190357</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>174.6424533492594</v>
+        <v>150.6499423676143</v>
       </c>
       <c r="D99">
-        <v>9.471537852615114</v>
+        <v>14.64283022328396</v>
       </c>
       <c r="E99">
         <v>0.875593875646003</v>
       </c>
       <c r="F99">
-        <v>35.73895939505413</v>
+        <v>8.752109884949157</v>
       </c>
       <c r="G99">
-        <v>184.0939693296448</v>
+        <v>151.8137255800398</v>
       </c>
       <c r="H99">
-        <v>22.39957037333573</v>
+        <v>12.24805451053003</v>
       </c>
       <c r="Q99">
-        <v>1.993372894071084</v>
+        <v>0.4544003424488762</v>
       </c>
       <c r="R99">
-        <v>4.138000352110256</v>
+        <v>0.8648396328051464</v>
       </c>
       <c r="S99" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T99">
-        <v>0.0002693000000135726</v>
+        <v>0.0002816000000080976</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4252,37 +4255,37 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>37.95202616309834</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>102.0940227811593</v>
+        <v>131.8081046523934</v>
       </c>
       <c r="D100">
-        <v>8.012238900499931</v>
+        <v>9.806268185410616</v>
       </c>
       <c r="E100">
         <v>359.7631414593671</v>
       </c>
       <c r="F100">
-        <v>26.54867681797589</v>
+        <v>8.582267919997705</v>
       </c>
       <c r="G100">
-        <v>105.1562036904896</v>
+        <v>131.2735067514421</v>
       </c>
       <c r="H100">
-        <v>4.90164360817346</v>
+        <v>7.966710040382414</v>
       </c>
       <c r="Q100">
-        <v>0.4292550747146958</v>
+        <v>0.345253909347688</v>
       </c>
       <c r="R100">
-        <v>1.607124457992958</v>
+        <v>0.777843338176698</v>
       </c>
       <c r="S100" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T100">
-        <v>0.0002599000000031992</v>
+        <v>0.0002829999999960364</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4290,37 +4293,37 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>35.25253513838563</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>87.85411186330506</v>
+        <v>121.0101405535425</v>
       </c>
       <c r="D101">
-        <v>13.25495174035896</v>
+        <v>8.856940790887005</v>
       </c>
       <c r="E101">
         <v>0.07117942135097972</v>
       </c>
       <c r="F101">
-        <v>24.43661800523174</v>
+        <v>8.828150415464595</v>
       </c>
       <c r="G101">
-        <v>92.75302880281902</v>
+        <v>120.8410641561654</v>
       </c>
       <c r="H101">
-        <v>7.83947911120249</v>
+        <v>7.355125941827139</v>
       </c>
       <c r="Q101">
-        <v>0.3809805480732865</v>
+        <v>0.2947520535127826</v>
       </c>
       <c r="R101">
-        <v>1.673027456498392</v>
+        <v>0.6412390529503155</v>
       </c>
       <c r="S101" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T101">
-        <v>0.0002794999999764514</v>
+        <v>0.0003580999999996948</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.5.xlsx
+++ b/tests/tests8/N 0.5.xlsx
@@ -498,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0.0002729999999928623</v>
+        <v>0.0002737000000010426</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -536,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <v>0.0002491000000190979</v>
+        <v>0.0002704999999991742</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -574,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="L4">
-        <v>0.0002594000000044616</v>
+        <v>0.0002747999999996864</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="L5">
-        <v>0.0002665000000661166</v>
+        <v>0.0002676000000008116</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="L6">
-        <v>0.0002766000000065105</v>
+        <v>0.0002853999999992141</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -688,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="L7">
-        <v>0.000290400000039881</v>
+        <v>0.0002714000000025862</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="L8">
-        <v>0.0002643999999918378</v>
+        <v>0.0002615000000005807</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -764,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="L9">
-        <v>0.0002565999999433188</v>
+        <v>0.0002606000000007214</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -802,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="L10">
-        <v>0.0002779999999802385</v>
+        <v>0.0002531999999995094</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="L11">
-        <v>0.0002524999999877764</v>
+        <v>0.0002415000000013379</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.5.xlsx
+++ b/tests/tests8/N 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>П0_ист</t>
   </si>
@@ -40,6 +40,12 @@
     <t>V0_расч</t>
   </si>
   <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
+  </si>
+  <si>
     <t>Ка</t>
   </si>
   <si>
@@ -50,9 +56,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>[0, 0, 1, 1]</t>
   </si>
   <si>
     <t>[0, 1, 1, 1]</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +465,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -477,31 +486,37 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.1179738270162</v>
+        <v>-0.1402342261474179</v>
       </c>
       <c r="F2">
-        <v>8.998329589980617</v>
+        <v>9.108793855433213</v>
       </c>
       <c r="G2">
-        <v>96.43775020219465</v>
+        <v>10.60602452551604</v>
       </c>
       <c r="H2">
-        <v>10.6003678748362</v>
+        <v>-1.307554096119273</v>
       </c>
       <c r="I2">
-        <v>0.3683915965215184</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="J2">
-        <v>0.6581098754554637</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>15.80711097780685</v>
+      </c>
+      <c r="K2">
+        <v>0.3809923038057424</v>
       </c>
       <c r="L2">
-        <v>0.0002737000000010426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4263678160964924</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0.000240000000303553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -515,31 +530,37 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.1878273181684</v>
+        <v>-0.1276151132472172</v>
       </c>
       <c r="F3">
-        <v>9.409472686369403</v>
+        <v>9.002171360962896</v>
       </c>
       <c r="G3">
-        <v>73.64113488407358</v>
+        <v>10.28240428217156</v>
       </c>
       <c r="H3">
-        <v>11.34220845519322</v>
+        <v>3.153378308049009</v>
       </c>
       <c r="I3">
-        <v>0.3202879271474312</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="J3">
-        <v>0.4018083583075803</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
+        <v>18.32782196423818</v>
+      </c>
+      <c r="K3">
+        <v>0.3603663198227919</v>
       </c>
       <c r="L3">
-        <v>0.0002704999999991742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4844351836609743</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>0.0001989000002140529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>0</v>
       </c>
@@ -553,31 +574,37 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.2083789237027319</v>
+        <v>0.03539978227136766</v>
       </c>
       <c r="F4">
-        <v>9.737122541720094</v>
+        <v>9.733466039526427</v>
       </c>
       <c r="G4">
-        <v>80.71126417293348</v>
+        <v>2.904596172916164</v>
       </c>
       <c r="H4">
-        <v>2.963131794075615</v>
+        <v>0.439926564840381</v>
       </c>
       <c r="I4">
-        <v>0.256988565769297</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="J4">
-        <v>0.4144507271564665</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
+        <v>9.618122158119826</v>
+      </c>
+      <c r="K4">
+        <v>0.2748882780651047</v>
       </c>
       <c r="L4">
-        <v>0.0002747999999996864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5251112416962502</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>0.0002238000006400398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>0</v>
       </c>
@@ -591,31 +618,37 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>359.1056857632848</v>
+        <v>-0.1383578861068319</v>
       </c>
       <c r="F5">
-        <v>9.090825540335604</v>
+        <v>8.863416030055387</v>
       </c>
       <c r="G5">
-        <v>97.45608973157385</v>
+        <v>10.16249509818244</v>
       </c>
       <c r="H5">
-        <v>10.56475959764594</v>
+        <v>-1.243615980705082</v>
       </c>
       <c r="I5">
-        <v>0.4042345026505154</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="J5">
-        <v>0.6201644145820053</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
+        <v>15.67687823027242</v>
+      </c>
+      <c r="K5">
+        <v>0.4571118572307397</v>
       </c>
       <c r="L5">
-        <v>0.0002676000000008116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6089783317049788</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>0.0002186000001529464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0</v>
       </c>
@@ -629,31 +662,37 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9747191464285</v>
+        <v>-0.004306071425816731</v>
       </c>
       <c r="F6">
-        <v>9.699570072702011</v>
+        <v>9.759152406487368</v>
       </c>
       <c r="G6">
-        <v>174.3517212806811</v>
+        <v>0.9215955192679258</v>
       </c>
       <c r="H6">
-        <v>9.19031153628117</v>
+        <v>-9.216796358221268</v>
       </c>
       <c r="I6">
-        <v>0.2429969140833977</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="J6">
-        <v>0.1619314742634778</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
+        <v>4.673171010711503</v>
+      </c>
+      <c r="K6">
+        <v>0.2472991500972715</v>
       </c>
       <c r="L6">
-        <v>0.0002853999999992141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1821054637420966</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>0.000212400000236812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>0</v>
       </c>
@@ -667,31 +706,37 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>359.7793862565575</v>
+        <v>-0.03574015007204383</v>
       </c>
       <c r="F7">
-        <v>9.061917784396845</v>
+        <v>9.282058345033557</v>
       </c>
       <c r="G7">
-        <v>38.55979005270795</v>
+        <v>7.877912315274869</v>
       </c>
       <c r="H7">
-        <v>12.30237660196793</v>
+        <v>9.699895406476351</v>
       </c>
       <c r="I7">
-        <v>0.2851846465015611</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="J7">
-        <v>0.4595817588007104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
+        <v>22.87529985576693</v>
+      </c>
+      <c r="K7">
+        <v>0.268639573957059</v>
       </c>
       <c r="L7">
-        <v>0.0002714000000025862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3841517281238864</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>0.0002368000004935311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>0</v>
       </c>
@@ -705,31 +750,37 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.1558918367437626</v>
+        <v>0.02492341444407439</v>
       </c>
       <c r="F8">
-        <v>9.07624627947359</v>
+        <v>9.160216241811177</v>
       </c>
       <c r="G8">
-        <v>162.6231561683866</v>
+        <v>1.834832301603555</v>
       </c>
       <c r="H8">
-        <v>6.030610850922837</v>
+        <v>-5.834696801161855</v>
       </c>
       <c r="I8">
-        <v>0.246862747121529</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="J8">
-        <v>0.5818414121605809</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
+        <v>3.973338297383755</v>
+      </c>
+      <c r="K8">
+        <v>0.250102873221067</v>
       </c>
       <c r="L8">
-        <v>0.0002615000000005807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5996049584715444</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>0.0002002999999604071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>0</v>
       </c>
@@ -743,31 +794,37 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.1547371480999</v>
+        <v>-0.1256554064643854</v>
       </c>
       <c r="F9">
-        <v>8.588029684676918</v>
+        <v>8.516879854175878</v>
       </c>
       <c r="G9">
-        <v>12.61332788312793</v>
+        <v>2.779883252592158</v>
       </c>
       <c r="H9">
-        <v>13.09260186304714</v>
+        <v>12.42226591608235</v>
       </c>
       <c r="I9">
-        <v>0.3137352311884232</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="J9">
-        <v>0.6230869980018654</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>22.28974380606835</v>
+      </c>
+      <c r="K9">
+        <v>0.3346893154978653</v>
       </c>
       <c r="L9">
-        <v>0.0002606000000007214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2452808662749733</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>0.0002517000002626446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>0</v>
       </c>
@@ -781,31 +838,37 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>359.9543976416901</v>
+        <v>-0.007441824696212176</v>
       </c>
       <c r="F10">
-        <v>9.495786583386268</v>
+        <v>9.350065933802282</v>
       </c>
       <c r="G10">
-        <v>157.3706396571467</v>
+        <v>5.186951871301763</v>
       </c>
       <c r="H10">
-        <v>13.73816125008121</v>
+        <v>-12.45033379169321</v>
       </c>
       <c r="I10">
-        <v>0.2978456161474906</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="J10">
-        <v>0.2504627652656645</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
+        <v>11.86534188679525</v>
+      </c>
+      <c r="K10">
+        <v>0.3017756026680711</v>
       </c>
       <c r="L10">
-        <v>0.0002531999999995094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3577860462933736</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.0002230000000054133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>0</v>
       </c>
@@ -819,28 +882,34 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.9994457226439</v>
+        <v>-9.529924999424393E-05</v>
       </c>
       <c r="F11">
-        <v>9.84289075261252</v>
+        <v>9.851105688246967</v>
       </c>
       <c r="G11">
-        <v>1.167346597906806</v>
+        <v>0.150351900963794</v>
       </c>
       <c r="H11">
-        <v>8.29633838658426</v>
+        <v>8.15847371395035</v>
       </c>
       <c r="I11">
-        <v>0.2552310828837495</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="J11">
-        <v>0.2450307624089645</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
+        <v>18.26849864379155</v>
+      </c>
+      <c r="K11">
+        <v>0.2747606420275979</v>
       </c>
       <c r="L11">
-        <v>0.0002415000000013379</v>
+        <v>0.4295226022220281</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.0002587999997558654</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.5.xlsx
+++ b/tests/tests8/N 0.5.xlsx
@@ -486,16 +486,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.1402342261474179</v>
+        <v>359.1179738270162</v>
       </c>
       <c r="F2">
-        <v>9.108793855433213</v>
+        <v>9.109873277876099</v>
       </c>
       <c r="G2">
-        <v>10.60602452551604</v>
+        <v>97.02819419584273</v>
       </c>
       <c r="H2">
-        <v>-1.307554096119273</v>
+        <v>10.68632087999074</v>
       </c>
       <c r="I2">
         <v>0.3392696413876129</v>
@@ -513,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="N2">
-        <v>0.000240000000303553</v>
+        <v>0.0002285000000004089</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -530,16 +530,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>-0.1276151132472172</v>
+        <v>359.1878273181684</v>
       </c>
       <c r="F3">
-        <v>9.002171360962896</v>
+        <v>9.003075853799615</v>
       </c>
       <c r="G3">
-        <v>10.28240428217156</v>
+        <v>72.95042068500887</v>
       </c>
       <c r="H3">
-        <v>3.153378308049009</v>
+        <v>10.75507473594182</v>
       </c>
       <c r="I3">
         <v>0.6427012887259322</v>
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="N3">
-        <v>0.0001989000002140529</v>
+        <v>0.0001974000000002363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -574,16 +574,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.03539978227136766</v>
+        <v>0.2083789237027319</v>
       </c>
       <c r="F4">
-        <v>9.733466039526427</v>
+        <v>9.733530412301546</v>
       </c>
       <c r="G4">
-        <v>2.904596172916164</v>
+        <v>81.38750974698425</v>
       </c>
       <c r="H4">
-        <v>0.439926564840381</v>
+        <v>2.937722640102616</v>
       </c>
       <c r="I4">
         <v>1.016342879682239</v>
@@ -601,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="N4">
-        <v>0.0002238000006400398</v>
+        <v>0.0001952999999996763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -618,16 +618,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>-0.1383578861068319</v>
+        <v>359.1056857632848</v>
       </c>
       <c r="F5">
-        <v>8.863416030055387</v>
+        <v>8.864495847282615</v>
       </c>
       <c r="G5">
-        <v>10.16249509818244</v>
+        <v>96.97677374314658</v>
       </c>
       <c r="H5">
-        <v>-1.243615980705082</v>
+        <v>10.23830490501465</v>
       </c>
       <c r="I5">
         <v>0.3375023832549029</v>
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="N5">
-        <v>0.0002186000001529464</v>
+        <v>0.0002070999999999046</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -662,16 +662,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.004306071425816731</v>
+        <v>359.9747191464285</v>
       </c>
       <c r="F6">
-        <v>9.759152406487368</v>
+        <v>9.759153356480228</v>
       </c>
       <c r="G6">
-        <v>0.9215955192679258</v>
+        <v>174.289924592264</v>
       </c>
       <c r="H6">
-        <v>-9.216796358221268</v>
+        <v>9.262757333000556</v>
       </c>
       <c r="I6">
         <v>-1.042039640464102</v>
@@ -689,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="N6">
-        <v>0.000212400000236812</v>
+        <v>0.0002027999999993924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -706,16 +706,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.03574015007204383</v>
+        <v>359.7793862565575</v>
       </c>
       <c r="F7">
-        <v>9.282058345033557</v>
+        <v>9.282127152702351</v>
       </c>
       <c r="G7">
-        <v>7.877912315274869</v>
+        <v>39.08228385336238</v>
       </c>
       <c r="H7">
-        <v>9.699895406476351</v>
+        <v>12.49597828678253</v>
       </c>
       <c r="I7">
         <v>1.04226575396884</v>
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0.0002368000004935311</v>
+        <v>0.0001905999999998187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -750,16 +750,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.02492341444407439</v>
+        <v>0.1558918367437626</v>
       </c>
       <c r="F8">
-        <v>9.160216241811177</v>
+        <v>9.160250147966968</v>
       </c>
       <c r="G8">
-        <v>1.834832301603555</v>
+        <v>162.5432453893262</v>
       </c>
       <c r="H8">
-        <v>-5.834696801161855</v>
+        <v>6.116395698162128</v>
       </c>
       <c r="I8">
         <v>-0.1329274218000709</v>
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="N8">
-        <v>0.0002002999999604071</v>
+        <v>0.000192500000000706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -794,16 +794,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>-0.1256554064643854</v>
+        <v>359.1547371480999</v>
       </c>
       <c r="F9">
-        <v>8.516879854175878</v>
+        <v>8.517806744205966</v>
       </c>
       <c r="G9">
-        <v>2.779883252592158</v>
+        <v>12.61395905792287</v>
       </c>
       <c r="H9">
-        <v>12.42226591608235</v>
+        <v>12.72951064997801</v>
       </c>
       <c r="I9">
         <v>1.35871477809105</v>
@@ -821,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="N9">
-        <v>0.0002517000002626446</v>
+        <v>0.0002317999999998932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -838,16 +838,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.007441824696212176</v>
+        <v>359.9543976416901</v>
       </c>
       <c r="F10">
-        <v>9.350065933802282</v>
+        <v>9.35006889531862</v>
       </c>
       <c r="G10">
-        <v>5.186951871301763</v>
+        <v>157.3828297772748</v>
       </c>
       <c r="H10">
-        <v>-12.45033379169321</v>
+        <v>13.48759731159626</v>
       </c>
       <c r="I10">
         <v>-0.8348238211053474</v>
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0.0002230000000054133</v>
+        <v>0.0002249000000000834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -882,16 +882,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-9.529924999424393E-05</v>
+        <v>359.9994457226439</v>
       </c>
       <c r="F11">
-        <v>9.851105688246967</v>
+        <v>9.851105688707928</v>
       </c>
       <c r="G11">
-        <v>0.150351900963794</v>
+        <v>1.055780116522308</v>
       </c>
       <c r="H11">
-        <v>8.15847371395035</v>
+        <v>8.159859008300465</v>
       </c>
       <c r="I11">
         <v>1.487317718644038</v>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0.0002587999997558654</v>
+        <v>0.0002174000000003673</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.5.xlsx
+++ b/tests/tests8/N 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>П0_ист</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>Ка</t>
@@ -422,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +477,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -498,25 +510,31 @@
         <v>10.68632087999074</v>
       </c>
       <c r="I2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="J2">
         <v>15.80711097780685</v>
       </c>
       <c r="K2">
+        <v>70.3092792424823</v>
+      </c>
+      <c r="L2">
+        <v>14.61187702926368</v>
+      </c>
+      <c r="M2">
         <v>0.3809923038057424</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.4263678160964924</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0.0002285000000004089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0.0002479999999991378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0</v>
       </c>
@@ -542,25 +560,31 @@
         <v>10.75507473594182</v>
       </c>
       <c r="I3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="J3">
         <v>18.32782196423818</v>
       </c>
       <c r="K3">
+        <v>52.76583781745349</v>
+      </c>
+      <c r="L3">
+        <v>16.80763673473804</v>
+      </c>
+      <c r="M3">
         <v>0.3603663198227919</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.4844351836609743</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>0.0001974000000002363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0.0002443000000198481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
@@ -586,25 +610,31 @@
         <v>2.937722640102616</v>
       </c>
       <c r="I4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="J4">
         <v>9.618122158119826</v>
       </c>
       <c r="K4">
+        <v>31.53539010311227</v>
+      </c>
+      <c r="L4">
+        <v>8.969682683834664</v>
+      </c>
+      <c r="M4">
         <v>0.2748882780651047</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.5251112416962502</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>0.0001952999999996763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>0.0002423999999905391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0</v>
       </c>
@@ -630,25 +660,31 @@
         <v>10.23830490501465</v>
       </c>
       <c r="I5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="J5">
         <v>15.67687823027242</v>
       </c>
       <c r="K5">
+        <v>70.2281176094268</v>
+      </c>
+      <c r="L5">
+        <v>14.05571872951897</v>
+      </c>
+      <c r="M5">
         <v>0.4571118572307397</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.6089783317049788</v>
       </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>0.0002070999999999046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>0.000238500000023123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0</v>
       </c>
@@ -674,25 +710,31 @@
         <v>9.262757333000556</v>
       </c>
       <c r="I6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="J6">
         <v>4.673171010711503</v>
       </c>
       <c r="K6">
+        <v>149.8863696777063</v>
+      </c>
+      <c r="L6">
+        <v>4.528578473703981</v>
+      </c>
+      <c r="M6">
         <v>0.2472991500972715</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.1821054637420966</v>
       </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>0.0002027999999993924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>0.0002403000000015254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -718,25 +760,31 @@
         <v>12.49597828678253</v>
       </c>
       <c r="I7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="J7">
         <v>22.87529985576693</v>
       </c>
       <c r="K7">
+        <v>30.04571430657057</v>
+      </c>
+      <c r="L7">
+        <v>21.14720008350525</v>
+      </c>
+      <c r="M7">
         <v>0.268639573957059</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.3841517281238864</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>0.0001905999999998187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>0.000254900000015823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -762,25 +810,31 @@
         <v>6.116395698162128</v>
       </c>
       <c r="I8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="J8">
         <v>3.973338297383755</v>
       </c>
       <c r="K8">
+        <v>97.67459318696064</v>
+      </c>
+      <c r="L8">
+        <v>3.427881528937831</v>
+      </c>
+      <c r="M8">
         <v>0.250102873221067</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.5996049584715444</v>
       </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>0.000192500000000706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8">
+        <v>0.0002336999999954514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0</v>
       </c>
@@ -806,25 +860,31 @@
         <v>12.72951064997801</v>
       </c>
       <c r="I9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="J9">
         <v>22.28974380606835</v>
       </c>
       <c r="K9">
+        <v>11.88915327508714</v>
+      </c>
+      <c r="L9">
+        <v>21.26337837791745</v>
+      </c>
+      <c r="M9">
         <v>0.3346893154978653</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.2452808662749733</v>
       </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9">
-        <v>0.0002317999999998932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>0.0002528999999924508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0</v>
       </c>
@@ -850,25 +910,31 @@
         <v>13.48759731159626</v>
       </c>
       <c r="I10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="J10">
         <v>11.86534188679525</v>
       </c>
       <c r="K10">
+        <v>138.0076686145245</v>
+      </c>
+      <c r="L10">
+        <v>11.041869627477</v>
+      </c>
+      <c r="M10">
         <v>0.3017756026680711</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.3577860462933736</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>0.0002249000000000834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0.000250700000009374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -894,22 +960,28 @@
         <v>8.159859008300465</v>
       </c>
       <c r="I11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="J11">
         <v>18.26849864379155</v>
       </c>
       <c r="K11">
+        <v>4.536426993374731</v>
+      </c>
+      <c r="L11">
+        <v>17.07841406545277</v>
+      </c>
+      <c r="M11">
         <v>0.2747606420275979</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.4295226022220281</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>0.0002174000000003673</v>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>0.0005630999999937103</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.5.xlsx
+++ b/tests/tests8/N 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
   <si>
     <t>П0_ист</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>0.0002479999999991378</v>
+        <v>0.0002594000000044616</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -581,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <v>0.0002443000000198481</v>
+        <v>0.000232600000003913</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -631,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="P4">
-        <v>0.0002423999999905391</v>
+        <v>0.0002340000000060627</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -681,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="P5">
-        <v>0.000238500000023123</v>
+        <v>0.0002896000000021104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -731,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="P6">
-        <v>0.0002403000000015254</v>
+        <v>0.0002317999999945641</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -781,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <v>0.000254900000015823</v>
+        <v>0.0002608000000066113</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -831,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="P8">
-        <v>0.0002336999999954514</v>
+        <v>0.0002197000000023763</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -881,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="P9">
-        <v>0.0002528999999924508</v>
+        <v>0.0002149999999971897</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -931,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>0.000250700000009374</v>
+        <v>0.0002218999999854532</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -981,7 +987,4507 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>0.0005630999999937103</v>
+        <v>0.0002714000000025862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.3342067479352</v>
+      </c>
+      <c r="F12">
+        <v>9.961792989904648</v>
+      </c>
+      <c r="G12">
+        <v>130.9826273629118</v>
+      </c>
+      <c r="H12">
+        <v>3.271855446139456</v>
+      </c>
+      <c r="I12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="J12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="K12">
+        <v>40.11460202594267</v>
+      </c>
+      <c r="L12">
+        <v>6.23703841662939</v>
+      </c>
+      <c r="M12">
+        <v>0.2725388966403511</v>
+      </c>
+      <c r="N12">
+        <v>0.3577207707064902</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>0.0002283000000034008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>359.1252726293474</v>
+      </c>
+      <c r="F13">
+        <v>9.101748534584463</v>
+      </c>
+      <c r="G13">
+        <v>26.8260042419438</v>
+      </c>
+      <c r="H13">
+        <v>4.259932339847318</v>
+      </c>
+      <c r="I13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="J13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="K13">
+        <v>16.81620193332307</v>
+      </c>
+      <c r="L13">
+        <v>11.53956299208648</v>
+      </c>
+      <c r="M13">
+        <v>0.3408578266414806</v>
+      </c>
+      <c r="N13">
+        <v>1.031672101481451</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13">
+        <v>0.0002101000000038766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>359.763507084255</v>
+      </c>
+      <c r="F14">
+        <v>9.383355694276259</v>
+      </c>
+      <c r="G14">
+        <v>26.87246061777848</v>
+      </c>
+      <c r="H14">
+        <v>11.52602327903326</v>
+      </c>
+      <c r="I14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="J14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="K14">
+        <v>21.13048334968634</v>
+      </c>
+      <c r="L14">
+        <v>20.48172758086318</v>
+      </c>
+      <c r="M14">
+        <v>0.2821551735791322</v>
+      </c>
+      <c r="N14">
+        <v>0.222210212329881</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <v>0.0002092999999945278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>0.3561953310252952</v>
+      </c>
+      <c r="F15">
+        <v>9.253769908764095</v>
+      </c>
+      <c r="G15">
+        <v>142.4531607875824</v>
+      </c>
+      <c r="H15">
+        <v>5.101848995958688</v>
+      </c>
+      <c r="I15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="J15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="K15">
+        <v>70.2217654740227</v>
+      </c>
+      <c r="L15">
+        <v>5.269790747154838</v>
+      </c>
+      <c r="M15">
+        <v>0.2445748909469959</v>
+      </c>
+      <c r="N15">
+        <v>0.6750747138909299</v>
+      </c>
+      <c r="O15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <v>0.0002220000000079381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>359.2243304443735</v>
+      </c>
+      <c r="F16">
+        <v>8.749083009010333</v>
+      </c>
+      <c r="G16">
+        <v>90.25885966292533</v>
+      </c>
+      <c r="H16">
+        <v>10.81237901414751</v>
+      </c>
+      <c r="I16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="J16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="K16">
+        <v>66.58834172828794</v>
+      </c>
+      <c r="L16">
+        <v>15.28509939227078</v>
+      </c>
+      <c r="M16">
+        <v>0.4202003911803887</v>
+      </c>
+      <c r="N16">
+        <v>0.6531781604482945</v>
+      </c>
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16">
+        <v>0.0002345000000048003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.156164240771768</v>
+      </c>
+      <c r="F17">
+        <v>9.526319574534703</v>
+      </c>
+      <c r="G17">
+        <v>154.6807312405465</v>
+      </c>
+      <c r="H17">
+        <v>4.755280519214709</v>
+      </c>
+      <c r="I17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="J17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="K17">
+        <v>64.28121996460465</v>
+      </c>
+      <c r="L17">
+        <v>4.036697691239156</v>
+      </c>
+      <c r="M17">
+        <v>0.2663957159396459</v>
+      </c>
+      <c r="N17">
+        <v>0.478369081659079</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0.0002153000000078009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>359.9360256394331</v>
+      </c>
+      <c r="F18">
+        <v>9.363381639201609</v>
+      </c>
+      <c r="G18">
+        <v>39.20939762034249</v>
+      </c>
+      <c r="H18">
+        <v>8.535567172283477</v>
+      </c>
+      <c r="I18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="J18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="K18">
+        <v>27.47312959048269</v>
+      </c>
+      <c r="L18">
+        <v>16.54982949884189</v>
+      </c>
+      <c r="M18">
+        <v>0.2257818813601775</v>
+      </c>
+      <c r="N18">
+        <v>0.4213501716117717</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.0002173999999968146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.8618670549893</v>
+      </c>
+      <c r="F19">
+        <v>9.329458503535003</v>
+      </c>
+      <c r="G19">
+        <v>51.72134026193734</v>
+      </c>
+      <c r="H19">
+        <v>8.718823981589479</v>
+      </c>
+      <c r="I19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="J19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="K19">
+        <v>35.35474450588377</v>
+      </c>
+      <c r="L19">
+        <v>16.17796055820425</v>
+      </c>
+      <c r="M19">
+        <v>0.2770585113430971</v>
+      </c>
+      <c r="N19">
+        <v>0.403456651659873</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0.0002058999999974276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9602857780969</v>
+      </c>
+      <c r="F20">
+        <v>8.939828132598503</v>
+      </c>
+      <c r="G20">
+        <v>116.6067258102816</v>
+      </c>
+      <c r="H20">
+        <v>7.728972834955771</v>
+      </c>
+      <c r="I20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="J20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="K20">
+        <v>77.07857224704262</v>
+      </c>
+      <c r="L20">
+        <v>9.702533699508207</v>
+      </c>
+      <c r="M20">
+        <v>0.290844444590834</v>
+      </c>
+      <c r="N20">
+        <v>0.6655355263295059</v>
+      </c>
+      <c r="O20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>0.0001971000000082768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.8894983686589</v>
+      </c>
+      <c r="F21">
+        <v>9.284742379076514</v>
+      </c>
+      <c r="G21">
+        <v>16.67513020965387</v>
+      </c>
+      <c r="H21">
+        <v>11.34900160823584</v>
+      </c>
+      <c r="I21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="J21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="K21">
+        <v>14.39612646220706</v>
+      </c>
+      <c r="L21">
+        <v>20.35355721174234</v>
+      </c>
+      <c r="M21">
+        <v>0.2658430708335863</v>
+      </c>
+      <c r="N21">
+        <v>0.3730642883354931</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0.0002378000000078373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>359.5580534436913</v>
+      </c>
+      <c r="F22">
+        <v>8.029643104107294</v>
+      </c>
+      <c r="G22">
+        <v>103.9241664748494</v>
+      </c>
+      <c r="H22">
+        <v>10.55101369415524</v>
+      </c>
+      <c r="I22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="J22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="K22">
+        <v>79.98380319840223</v>
+      </c>
+      <c r="L22">
+        <v>13.60504582580354</v>
+      </c>
+      <c r="M22">
+        <v>0.384501873218345</v>
+      </c>
+      <c r="N22">
+        <v>1.110825931518062</v>
+      </c>
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>0.0002046000000177628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>0.02598212475276744</v>
+      </c>
+      <c r="F23">
+        <v>9.94006684335179</v>
+      </c>
+      <c r="G23">
+        <v>8.459279791388205</v>
+      </c>
+      <c r="H23">
+        <v>6.07166348878184</v>
+      </c>
+      <c r="I23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="J23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="K23">
+        <v>8.789791560271373</v>
+      </c>
+      <c r="L23">
+        <v>14.70311159549056</v>
+      </c>
+      <c r="M23">
+        <v>0.2638483912166463</v>
+      </c>
+      <c r="N23">
+        <v>0.2443058071850186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.0002176000000133627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.04597495993259098</v>
+      </c>
+      <c r="F24">
+        <v>9.6317029406042</v>
+      </c>
+      <c r="G24">
+        <v>37.28234499281761</v>
+      </c>
+      <c r="H24">
+        <v>8.021240075803796</v>
+      </c>
+      <c r="I24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="J24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="K24">
+        <v>25.53065565306315</v>
+      </c>
+      <c r="L24">
+        <v>16.26184583173626</v>
+      </c>
+      <c r="M24">
+        <v>0.2932672806128094</v>
+      </c>
+      <c r="N24">
+        <v>0.3893761217823462</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0.0002106000000026143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.6665059718233</v>
+      </c>
+      <c r="F25">
+        <v>8.326601077949332</v>
+      </c>
+      <c r="G25">
+        <v>91.40243988164413</v>
+      </c>
+      <c r="H25">
+        <v>11.56908640692748</v>
+      </c>
+      <c r="I25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="J25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="K25">
+        <v>70.30244903985975</v>
+      </c>
+      <c r="L25">
+        <v>15.93305753667859</v>
+      </c>
+      <c r="M25">
+        <v>0.3191393812552102</v>
+      </c>
+      <c r="N25">
+        <v>0.924745461863488</v>
+      </c>
+      <c r="O25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25">
+        <v>0.0001994000000138385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.3353939136754</v>
+      </c>
+      <c r="F26">
+        <v>9.54423646064763</v>
+      </c>
+      <c r="G26">
+        <v>172.3364367523911</v>
+      </c>
+      <c r="H26">
+        <v>10.81620161472856</v>
+      </c>
+      <c r="I26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="J26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="K26">
+        <v>154.8218768657334</v>
+      </c>
+      <c r="L26">
+        <v>6.559501469505607</v>
+      </c>
+      <c r="M26">
+        <v>0.4681249025860265</v>
+      </c>
+      <c r="N26">
+        <v>0.2452662932933086</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0.0002532999999971253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>359.8858634551669</v>
+      </c>
+      <c r="F27">
+        <v>9.1331901948635</v>
+      </c>
+      <c r="G27">
+        <v>156.9622478439494</v>
+      </c>
+      <c r="H27">
+        <v>8.851860380295788</v>
+      </c>
+      <c r="I27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="J27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="K27">
+        <v>121.5378446931116</v>
+      </c>
+      <c r="L27">
+        <v>6.229227863345931</v>
+      </c>
+      <c r="M27">
+        <v>0.3073818327349557</v>
+      </c>
+      <c r="N27">
+        <v>0.4982358397202464</v>
+      </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27">
+        <v>0.0002111000000013519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>359.90200339417</v>
+      </c>
+      <c r="F28">
+        <v>9.42697574661107</v>
+      </c>
+      <c r="G28">
+        <v>54.60566924900834</v>
+      </c>
+      <c r="H28">
+        <v>8.571032777108655</v>
+      </c>
+      <c r="I28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="J28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="K28">
+        <v>36.76303325282183</v>
+      </c>
+      <c r="L28">
+        <v>15.93750278144023</v>
+      </c>
+      <c r="M28">
+        <v>0.262993158404944</v>
+      </c>
+      <c r="N28">
+        <v>0.3679723680073397</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0.0002034000000037395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.3571972923839</v>
+      </c>
+      <c r="F29">
+        <v>8.874386924215367</v>
+      </c>
+      <c r="G29">
+        <v>74.85422379785157</v>
+      </c>
+      <c r="H29">
+        <v>11.41781962418033</v>
+      </c>
+      <c r="I29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="J29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="K29">
+        <v>55.4681728915035</v>
+      </c>
+      <c r="L29">
+        <v>17.35390979195618</v>
+      </c>
+      <c r="M29">
+        <v>0.3469319337074644</v>
+      </c>
+      <c r="N29">
+        <v>0.5739591046399328</v>
+      </c>
+      <c r="O29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29">
+        <v>0.0001957000000061271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.776833811065</v>
+      </c>
+      <c r="F30">
+        <v>8.963514992052195</v>
+      </c>
+      <c r="G30">
+        <v>130.6976752466925</v>
+      </c>
+      <c r="H30">
+        <v>8.419037531192243</v>
+      </c>
+      <c r="I30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="J30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="K30">
+        <v>91.56734698402153</v>
+      </c>
+      <c r="L30">
+        <v>8.798414302061166</v>
+      </c>
+      <c r="M30">
+        <v>0.2915546229269355</v>
+      </c>
+      <c r="N30">
+        <v>0.6061844151800568</v>
+      </c>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30">
+        <v>0.0002235000000041509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>0.2087410631522755</v>
+      </c>
+      <c r="F31">
+        <v>9.200170326278927</v>
+      </c>
+      <c r="G31">
+        <v>157.4874509717903</v>
+      </c>
+      <c r="H31">
+        <v>5.62752804408236</v>
+      </c>
+      <c r="I31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="J31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="K31">
+        <v>84.79337835857568</v>
+      </c>
+      <c r="L31">
+        <v>3.805313867522177</v>
+      </c>
+      <c r="M31">
+        <v>0.2774397824540615</v>
+      </c>
+      <c r="N31">
+        <v>0.650485913598491</v>
+      </c>
+      <c r="O31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31">
+        <v>0.0002072000000055141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.6320263323882001</v>
+      </c>
+      <c r="F32">
+        <v>8.624649267592011</v>
+      </c>
+      <c r="G32">
+        <v>117.1786260538393</v>
+      </c>
+      <c r="H32">
+        <v>5.825104301079548</v>
+      </c>
+      <c r="I32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="J32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="K32">
+        <v>69.3873113714391</v>
+      </c>
+      <c r="L32">
+        <v>7.995791315108511</v>
+      </c>
+      <c r="M32">
+        <v>0.2984003417949399</v>
+      </c>
+      <c r="N32">
+        <v>1.071111505161516</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32">
+        <v>0.0002058999999974276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.2073786071257917</v>
+      </c>
+      <c r="F33">
+        <v>8.858871057590141</v>
+      </c>
+      <c r="G33">
+        <v>50.03886004923362</v>
+      </c>
+      <c r="H33">
+        <v>12.40866726794844</v>
+      </c>
+      <c r="I33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="J33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="K33">
+        <v>38.59532921085383</v>
+      </c>
+      <c r="L33">
+        <v>20.22346063258582</v>
+      </c>
+      <c r="M33">
+        <v>0.2919985037567063</v>
+      </c>
+      <c r="N33">
+        <v>0.742930465861579</v>
+      </c>
+      <c r="O33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33">
+        <v>0.000197400000018888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>0.1744472254947149</v>
+      </c>
+      <c r="F34">
+        <v>8.818677155540813</v>
+      </c>
+      <c r="G34">
+        <v>156.4692724197017</v>
+      </c>
+      <c r="H34">
+        <v>6.17078405416532</v>
+      </c>
+      <c r="I34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="J34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="K34">
+        <v>98.0427217834378</v>
+      </c>
+      <c r="L34">
+        <v>4.194920025249199</v>
+      </c>
+      <c r="M34">
+        <v>0.2777180103284957</v>
+      </c>
+      <c r="N34">
+        <v>0.7909349300532702</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34">
+        <v>0.0001903000000140764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.1594267525540688</v>
+      </c>
+      <c r="F35">
+        <v>9.483219745647791</v>
+      </c>
+      <c r="G35">
+        <v>44.22794422910741</v>
+      </c>
+      <c r="H35">
+        <v>7.517671619811082</v>
+      </c>
+      <c r="I35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="J35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="K35">
+        <v>29.32670389912855</v>
+      </c>
+      <c r="L35">
+        <v>15.29080329969804</v>
+      </c>
+      <c r="M35">
+        <v>0.2564682227479374</v>
+      </c>
+      <c r="N35">
+        <v>0.4882167563591862</v>
+      </c>
+      <c r="O35" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35">
+        <v>0.0002077000000042517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.8780824496862</v>
+      </c>
+      <c r="F36">
+        <v>9.574145074289122</v>
+      </c>
+      <c r="G36">
+        <v>6.530363576469797</v>
+      </c>
+      <c r="H36">
+        <v>11.51462788933328</v>
+      </c>
+      <c r="I36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="J36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="K36">
+        <v>7.495178982966857</v>
+      </c>
+      <c r="L36">
+        <v>20.86392701587035</v>
+      </c>
+      <c r="M36">
+        <v>0.2553205236802862</v>
+      </c>
+      <c r="N36">
+        <v>0.3238289181360791</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>0.0002186000000108379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>0.9448683550439242</v>
+      </c>
+      <c r="F37">
+        <v>9.082822200133981</v>
+      </c>
+      <c r="G37">
+        <v>84.91414051573285</v>
+      </c>
+      <c r="H37">
+        <v>5.154315464753187</v>
+      </c>
+      <c r="I37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="J37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="K37">
+        <v>46.84745756844165</v>
+      </c>
+      <c r="L37">
+        <v>10.25455421420352</v>
+      </c>
+      <c r="M37">
+        <v>0.3558546323929831</v>
+      </c>
+      <c r="N37">
+        <v>1.04027343686684</v>
+      </c>
+      <c r="O37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37">
+        <v>0.0001910000000009404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>359.6617933671228</v>
+      </c>
+      <c r="F38">
+        <v>8.489722526133349</v>
+      </c>
+      <c r="G38">
+        <v>130.3532073114202</v>
+      </c>
+      <c r="H38">
+        <v>8.225849253457254</v>
+      </c>
+      <c r="I38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="J38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="K38">
+        <v>93.43156363906608</v>
+      </c>
+      <c r="L38">
+        <v>8.658246855107015</v>
+      </c>
+      <c r="M38">
+        <v>0.3828177686494963</v>
+      </c>
+      <c r="N38">
+        <v>0.8709543985736519</v>
+      </c>
+      <c r="O38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38">
+        <v>0.0001867000000004282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.02723180616874827</v>
+      </c>
+      <c r="F39">
+        <v>9.381302954059658</v>
+      </c>
+      <c r="G39">
+        <v>170.8122015153471</v>
+      </c>
+      <c r="H39">
+        <v>7.84606681482024</v>
+      </c>
+      <c r="I39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="J39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="K39">
+        <v>133.3643029362851</v>
+      </c>
+      <c r="L39">
+        <v>3.683975562328564</v>
+      </c>
+      <c r="M39">
+        <v>0.2593328176376904</v>
+      </c>
+      <c r="N39">
+        <v>0.4960084042308511</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>0.0002422000000024127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.4956471759416</v>
+      </c>
+      <c r="F40">
+        <v>9.022405937180801</v>
+      </c>
+      <c r="G40">
+        <v>67.87156807752172</v>
+      </c>
+      <c r="H40">
+        <v>12.0449399453082</v>
+      </c>
+      <c r="I40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="J40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="K40">
+        <v>50.70412590767528</v>
+      </c>
+      <c r="L40">
+        <v>18.71117419603637</v>
+      </c>
+      <c r="M40">
+        <v>0.3275011054920261</v>
+      </c>
+      <c r="N40">
+        <v>0.5133504774495957</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>0.0002469000000075994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.297580216989</v>
+      </c>
+      <c r="F41">
+        <v>8.526071445802737</v>
+      </c>
+      <c r="G41">
+        <v>96.31851686886871</v>
+      </c>
+      <c r="H41">
+        <v>10.57166498705332</v>
+      </c>
+      <c r="I41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="J41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="K41">
+        <v>71.73636269962333</v>
+      </c>
+      <c r="L41">
+        <v>14.40028802999785</v>
+      </c>
+      <c r="M41">
+        <v>0.4173139532421502</v>
+      </c>
+      <c r="N41">
+        <v>0.8136438874846548</v>
+      </c>
+      <c r="O41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41">
+        <v>0.0002169999999921401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>0.3037738486056159</v>
+      </c>
+      <c r="F42">
+        <v>9.712812103412778</v>
+      </c>
+      <c r="G42">
+        <v>75.06336598623712</v>
+      </c>
+      <c r="H42">
+        <v>3.234500815588166</v>
+      </c>
+      <c r="I42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="J42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="K42">
+        <v>31.55404399792093</v>
+      </c>
+      <c r="L42">
+        <v>9.501585068799685</v>
+      </c>
+      <c r="M42">
+        <v>0.2613357048190562</v>
+      </c>
+      <c r="N42">
+        <v>0.5395902423406954</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42">
+        <v>0.0002107000000250991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.1353561615336547</v>
+      </c>
+      <c r="F43">
+        <v>9.714324023715463</v>
+      </c>
+      <c r="G43">
+        <v>45.44448530768857</v>
+      </c>
+      <c r="H43">
+        <v>3.132712623206368</v>
+      </c>
+      <c r="I43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="J43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="K43">
+        <v>21.68954438875606</v>
+      </c>
+      <c r="L43">
+        <v>10.47721437320613</v>
+      </c>
+      <c r="M43">
+        <v>0.2589347731712326</v>
+      </c>
+      <c r="N43">
+        <v>0.4842678471969894</v>
+      </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <v>0.0002072000000055141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>359.7516429234944</v>
+      </c>
+      <c r="F44">
+        <v>8.908056181617031</v>
+      </c>
+      <c r="G44">
+        <v>66.19069597010341</v>
+      </c>
+      <c r="H44">
+        <v>12.63154447712151</v>
+      </c>
+      <c r="I44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="J44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="K44">
+        <v>50.39561296043119</v>
+      </c>
+      <c r="L44">
+        <v>19.4683509471388</v>
+      </c>
+      <c r="M44">
+        <v>0.296313794837953</v>
+      </c>
+      <c r="N44">
+        <v>0.6170521617075055</v>
+      </c>
+      <c r="O44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44">
+        <v>0.0002038000000084139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.8713000373277</v>
+      </c>
+      <c r="F45">
+        <v>9.353989615559049</v>
+      </c>
+      <c r="G45">
+        <v>19.66218440472604</v>
+      </c>
+      <c r="H45">
+        <v>9.810205247543584</v>
+      </c>
+      <c r="I45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="J45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="K45">
+        <v>15.99912454791603</v>
+      </c>
+      <c r="L45">
+        <v>18.54163689027914</v>
+      </c>
+      <c r="M45">
+        <v>0.2622846487453935</v>
+      </c>
+      <c r="N45">
+        <v>0.3258637533512883</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0.0002607000000125481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.3753073586279415</v>
+      </c>
+      <c r="F46">
+        <v>9.60357393935845</v>
+      </c>
+      <c r="G46">
+        <v>154.5816994203559</v>
+      </c>
+      <c r="H46">
+        <v>3.98977068587477</v>
+      </c>
+      <c r="I46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="J46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="K46">
+        <v>51.00131344285811</v>
+      </c>
+      <c r="L46">
+        <v>4.231256773960424</v>
+      </c>
+      <c r="M46">
+        <v>0.2839138922784513</v>
+      </c>
+      <c r="N46">
+        <v>0.5647489278511137</v>
+      </c>
+      <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46">
+        <v>0.0002083999999911157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9868126135752</v>
+      </c>
+      <c r="F47">
+        <v>9.806783215676946</v>
+      </c>
+      <c r="G47">
+        <v>178.2346820934246</v>
+      </c>
+      <c r="H47">
+        <v>9.358337882839709</v>
+      </c>
+      <c r="I47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="J47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="K47">
+        <v>159.4277709268367</v>
+      </c>
+      <c r="L47">
+        <v>4.30904295115004</v>
+      </c>
+      <c r="M47">
+        <v>0.2428569064298568</v>
+      </c>
+      <c r="N47">
+        <v>0.167404233578436</v>
+      </c>
+      <c r="O47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47">
+        <v>0.0002086000000076638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>359.7075620800647</v>
+      </c>
+      <c r="F48">
+        <v>8.615336554188765</v>
+      </c>
+      <c r="G48">
+        <v>140.841241317376</v>
+      </c>
+      <c r="H48">
+        <v>8.72301592145884</v>
+      </c>
+      <c r="I48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="J48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="K48">
+        <v>105.308678395015</v>
+      </c>
+      <c r="L48">
+        <v>8.021091939349983</v>
+      </c>
+      <c r="M48">
+        <v>0.3497218339252772</v>
+      </c>
+      <c r="N48">
+        <v>0.7431892440314753</v>
+      </c>
+      <c r="O48" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48">
+        <v>0.0002001000000007025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.4240047378830676</v>
+      </c>
+      <c r="F49">
+        <v>9.609418967136708</v>
+      </c>
+      <c r="G49">
+        <v>19.83366969071894</v>
+      </c>
+      <c r="H49">
+        <v>12.51190860457118</v>
+      </c>
+      <c r="I49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="J49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="K49">
+        <v>16.70133074604042</v>
+      </c>
+      <c r="L49">
+        <v>22.04647154989155</v>
+      </c>
+      <c r="M49">
+        <v>0.2756981164441851</v>
+      </c>
+      <c r="N49">
+        <v>0.6664047834119911</v>
+      </c>
+      <c r="O49" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49">
+        <v>0.0002117999999882159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>0.4968156599642271</v>
+      </c>
+      <c r="F50">
+        <v>10.24483819107502</v>
+      </c>
+      <c r="G50">
+        <v>1.681294408325182</v>
+      </c>
+      <c r="H50">
+        <v>10.98132094138826</v>
+      </c>
+      <c r="I50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="J50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="K50">
+        <v>4.5244196066466</v>
+      </c>
+      <c r="L50">
+        <v>20.86502215450752</v>
+      </c>
+      <c r="M50">
+        <v>0.2875197666445399</v>
+      </c>
+      <c r="N50">
+        <v>0.8571775698589319</v>
+      </c>
+      <c r="O50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50">
+        <v>0.0002318999999886273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>0.5215795391032959</v>
+      </c>
+      <c r="F51">
+        <v>9.520456483530792</v>
+      </c>
+      <c r="G51">
+        <v>54.65602249834093</v>
+      </c>
+      <c r="H51">
+        <v>4.989613650790012</v>
+      </c>
+      <c r="I51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="J51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="K51">
+        <v>30.64034540764633</v>
+      </c>
+      <c r="L51">
+        <v>12.04973645471268</v>
+      </c>
+      <c r="M51">
+        <v>0.2607926785657769</v>
+      </c>
+      <c r="N51">
+        <v>0.709180483687027</v>
+      </c>
+      <c r="O51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51">
+        <v>0.0002250000000003638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>0.7801760543418236</v>
+      </c>
+      <c r="F52">
+        <v>9.192268047040573</v>
+      </c>
+      <c r="G52">
+        <v>91.66948859055238</v>
+      </c>
+      <c r="H52">
+        <v>4.565190637546407</v>
+      </c>
+      <c r="I52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="J52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="K52">
+        <v>46.54670683894312</v>
+      </c>
+      <c r="L52">
+        <v>9.327996235401013</v>
+      </c>
+      <c r="M52">
+        <v>0.3148885247707767</v>
+      </c>
+      <c r="N52">
+        <v>0.9535060915291638</v>
+      </c>
+      <c r="O52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52">
+        <v>0.0002501000000165732</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.1452515866743192</v>
+      </c>
+      <c r="F53">
+        <v>9.641697871523075</v>
+      </c>
+      <c r="G53">
+        <v>122.9040439523237</v>
+      </c>
+      <c r="H53">
+        <v>3.258944621548213</v>
+      </c>
+      <c r="I53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="J53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="K53">
+        <v>42.42023198897298</v>
+      </c>
+      <c r="L53">
+        <v>6.638780834058933</v>
+      </c>
+      <c r="M53">
+        <v>0.254680594186019</v>
+      </c>
+      <c r="N53">
+        <v>0.4280966311303275</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0.0002072000000055141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.7402620796929</v>
+      </c>
+      <c r="F54">
+        <v>9.978672331362059</v>
+      </c>
+      <c r="G54">
+        <v>145.3303663136997</v>
+      </c>
+      <c r="H54">
+        <v>3.278805579041514</v>
+      </c>
+      <c r="I54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="J54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="K54">
+        <v>39.18408909991035</v>
+      </c>
+      <c r="L54">
+        <v>5.323356705880494</v>
+      </c>
+      <c r="M54">
+        <v>0.239404057597165</v>
+      </c>
+      <c r="N54">
+        <v>0.1523875250691364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54">
+        <v>0.0001973999999904663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>359.8970675665747</v>
+      </c>
+      <c r="F55">
+        <v>8.772206540198324</v>
+      </c>
+      <c r="G55">
+        <v>152.8929761620788</v>
+      </c>
+      <c r="H55">
+        <v>8.142930434420798</v>
+      </c>
+      <c r="I55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="J55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="K55">
+        <v>114.390240173327</v>
+      </c>
+      <c r="L55">
+        <v>6.156575359417374</v>
+      </c>
+      <c r="M55">
+        <v>0.3247887030921549</v>
+      </c>
+      <c r="N55">
+        <v>0.6966170707959622</v>
+      </c>
+      <c r="O55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55">
+        <v>0.0002413999999930638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.9261053723064553</v>
+      </c>
+      <c r="F56">
+        <v>9.05645571824309</v>
+      </c>
+      <c r="G56">
+        <v>76.82815376278084</v>
+      </c>
+      <c r="H56">
+        <v>5.702110868265627</v>
+      </c>
+      <c r="I56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="J56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="K56">
+        <v>44.93261991749013</v>
+      </c>
+      <c r="L56">
+        <v>11.29779252435292</v>
+      </c>
+      <c r="M56">
+        <v>0.3097005619966557</v>
+      </c>
+      <c r="N56">
+        <v>1.007925831239258</v>
+      </c>
+      <c r="O56" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56">
+        <v>0.0002158000000065385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>0.8118655573170027</v>
+      </c>
+      <c r="F57">
+        <v>9.976158093066328</v>
+      </c>
+      <c r="G57">
+        <v>16.26790273859394</v>
+      </c>
+      <c r="H57">
+        <v>11.72222088491823</v>
+      </c>
+      <c r="I57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="J57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="K57">
+        <v>14.13112833431971</v>
+      </c>
+      <c r="L57">
+        <v>21.51326504236295</v>
+      </c>
+      <c r="M57">
+        <v>0.3025226550115779</v>
+      </c>
+      <c r="N57">
+        <v>0.8264704636151319</v>
+      </c>
+      <c r="O57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57">
+        <v>0.0004212000000052285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.5188215877512897</v>
+      </c>
+      <c r="F58">
+        <v>8.614607671315834</v>
+      </c>
+      <c r="G58">
+        <v>181.8623691771014</v>
+      </c>
+      <c r="H58">
+        <v>5.652634426232957</v>
+      </c>
+      <c r="I58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="J58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="K58">
+        <v>127.2487721986784</v>
+      </c>
+      <c r="L58">
+        <v>1.291452272481694</v>
+      </c>
+      <c r="M58">
+        <v>0.7708684833982024</v>
+      </c>
+      <c r="N58">
+        <v>2.335210061145888</v>
+      </c>
+      <c r="O58" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58">
+        <v>0.0002939000000026226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>0.06552607867345203</v>
+      </c>
+      <c r="F59">
+        <v>9.593785221669997</v>
+      </c>
+      <c r="G59">
+        <v>14.43851392679291</v>
+      </c>
+      <c r="H59">
+        <v>5.494302893428288</v>
+      </c>
+      <c r="I59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="J59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="K59">
+        <v>11.93893426409907</v>
+      </c>
+      <c r="L59">
+        <v>13.65777629561653</v>
+      </c>
+      <c r="M59">
+        <v>0.2845076736373868</v>
+      </c>
+      <c r="N59">
+        <v>0.3064712685852366</v>
+      </c>
+      <c r="O59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59">
+        <v>0.0002454000000113865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.3800930730872643</v>
+      </c>
+      <c r="F60">
+        <v>9.135035905363484</v>
+      </c>
+      <c r="G60">
+        <v>64.73272751607475</v>
+      </c>
+      <c r="H60">
+        <v>7.177441699237724</v>
+      </c>
+      <c r="I60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="J60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="K60">
+        <v>41.50105304768655</v>
+      </c>
+      <c r="L60">
+        <v>13.61227753629696</v>
+      </c>
+      <c r="M60">
+        <v>0.2570217383394396</v>
+      </c>
+      <c r="N60">
+        <v>0.7128741789594977</v>
+      </c>
+      <c r="O60" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60">
+        <v>0.0002371000000209733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.8346417606973641</v>
+      </c>
+      <c r="F61">
+        <v>9.014424156931183</v>
+      </c>
+      <c r="G61">
+        <v>174.7254857374605</v>
+      </c>
+      <c r="H61">
+        <v>4.318070274409481</v>
+      </c>
+      <c r="I61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="J61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="K61">
+        <v>55.16640987783867</v>
+      </c>
+      <c r="L61">
+        <v>2.166269067028691</v>
+      </c>
+      <c r="M61">
+        <v>0.4326261521146653</v>
+      </c>
+      <c r="N61">
+        <v>1.390314103514807</v>
+      </c>
+      <c r="O61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61">
+        <v>0.0002406000000121367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>0.4608854966065385</v>
+      </c>
+      <c r="F62">
+        <v>9.707008285550367</v>
+      </c>
+      <c r="G62">
+        <v>55.87642744750667</v>
+      </c>
+      <c r="H62">
+        <v>4.418611675591096</v>
+      </c>
+      <c r="I62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="J62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="K62">
+        <v>29.25601417705129</v>
+      </c>
+      <c r="L62">
+        <v>11.53635636113848</v>
+      </c>
+      <c r="M62">
+        <v>0.3033711355251635</v>
+      </c>
+      <c r="N62">
+        <v>0.6611970605233157</v>
+      </c>
+      <c r="O62" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62">
+        <v>0.0002220000000079381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.2157477757799077</v>
+      </c>
+      <c r="F63">
+        <v>9.512962742499104</v>
+      </c>
+      <c r="G63">
+        <v>150.5005517906868</v>
+      </c>
+      <c r="H63">
+        <v>4.757764559304938</v>
+      </c>
+      <c r="I63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="J63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="K63">
+        <v>64.37167029006893</v>
+      </c>
+      <c r="L63">
+        <v>4.456018354983095</v>
+      </c>
+      <c r="M63">
+        <v>0.2782606659170711</v>
+      </c>
+      <c r="N63">
+        <v>0.4823528427669417</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>0.0001934000000005653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.006162713151847251</v>
+      </c>
+      <c r="F64">
+        <v>9.866021770940918</v>
+      </c>
+      <c r="G64">
+        <v>5.578841136266164</v>
+      </c>
+      <c r="H64">
+        <v>8.257996328078105</v>
+      </c>
+      <c r="I64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="J64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="K64">
+        <v>7.111303922411266</v>
+      </c>
+      <c r="L64">
+        <v>17.24497311361061</v>
+      </c>
+      <c r="M64">
+        <v>0.2329784006075822</v>
+      </c>
+      <c r="N64">
+        <v>0.3081510442055327</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>0.0002360000000010132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>1.069489326759043</v>
+      </c>
+      <c r="F65">
+        <v>8.581924755966361</v>
+      </c>
+      <c r="G65">
+        <v>101.5548736352696</v>
+      </c>
+      <c r="H65">
+        <v>5.651635613661218</v>
+      </c>
+      <c r="I65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="J65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="K65">
+        <v>59.99384910978076</v>
+      </c>
+      <c r="L65">
+        <v>9.209481836337311</v>
+      </c>
+      <c r="M65">
+        <v>0.3573125966489286</v>
+      </c>
+      <c r="N65">
+        <v>1.263375626105699</v>
+      </c>
+      <c r="O65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P65">
+        <v>0.0002298999999936768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>359.4498385303842</v>
+      </c>
+      <c r="F66">
+        <v>9.292682090107215</v>
+      </c>
+      <c r="G66">
+        <v>66.4388795302926</v>
+      </c>
+      <c r="H66">
+        <v>9.379818209287116</v>
+      </c>
+      <c r="I66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="J66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="K66">
+        <v>45.56733001002501</v>
+      </c>
+      <c r="L66">
+        <v>15.96286457031668</v>
+      </c>
+      <c r="M66">
+        <v>0.3492613843642639</v>
+      </c>
+      <c r="N66">
+        <v>0.3119575905998371</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>0.0002327999999920394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.4168324115663374</v>
+      </c>
+      <c r="F67">
+        <v>9.838307366203226</v>
+      </c>
+      <c r="G67">
+        <v>40.84527233225291</v>
+      </c>
+      <c r="H67">
+        <v>2.705855093049834</v>
+      </c>
+      <c r="I67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="J67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="K67">
+        <v>19.17576554118624</v>
+      </c>
+      <c r="L67">
+        <v>10.24651389544593</v>
+      </c>
+      <c r="M67">
+        <v>0.2691270806516575</v>
+      </c>
+      <c r="N67">
+        <v>0.7709714533442713</v>
+      </c>
+      <c r="O67" t="s">
+        <v>19</v>
+      </c>
+      <c r="P67">
+        <v>0.000217800000001489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.2921928179678</v>
+      </c>
+      <c r="F68">
+        <v>9.285260508621214</v>
+      </c>
+      <c r="G68">
+        <v>25.22874506686282</v>
+      </c>
+      <c r="H68">
+        <v>5.249361038919098</v>
+      </c>
+      <c r="I68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="J68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="K68">
+        <v>16.829754800823</v>
+      </c>
+      <c r="L68">
+        <v>12.91992991669184</v>
+      </c>
+      <c r="M68">
+        <v>0.3033269478342654</v>
+      </c>
+      <c r="N68">
+        <v>0.4602730535609287</v>
+      </c>
+      <c r="O68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68">
+        <v>0.0002374000000031629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>359.4357389238899</v>
+      </c>
+      <c r="F69">
+        <v>8.37209797688207</v>
+      </c>
+      <c r="G69">
+        <v>96.10716780032826</v>
+      </c>
+      <c r="H69">
+        <v>10.88823554394431</v>
+      </c>
+      <c r="I69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="J69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="K69">
+        <v>72.77451200194305</v>
+      </c>
+      <c r="L69">
+        <v>14.74091263235017</v>
+      </c>
+      <c r="M69">
+        <v>0.3942444305084051</v>
+      </c>
+      <c r="N69">
+        <v>0.9199156396249599</v>
+      </c>
+      <c r="O69" t="s">
+        <v>19</v>
+      </c>
+      <c r="P69">
+        <v>0.0002320000000111122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>0.4722381821858267</v>
+      </c>
+      <c r="F70">
+        <v>9.792561336202569</v>
+      </c>
+      <c r="G70">
+        <v>50.40351742267022</v>
+      </c>
+      <c r="H70">
+        <v>2.669455945510392</v>
+      </c>
+      <c r="I70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="J70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="K70">
+        <v>21.97518621150691</v>
+      </c>
+      <c r="L70">
+        <v>9.939768970562429</v>
+      </c>
+      <c r="M70">
+        <v>0.2872918807673079</v>
+      </c>
+      <c r="N70">
+        <v>0.9883725308592251</v>
+      </c>
+      <c r="O70" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70">
+        <v>0.0002725999999881878</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>359.5422464507259</v>
+      </c>
+      <c r="F71">
+        <v>8.950617396744763</v>
+      </c>
+      <c r="G71">
+        <v>51.57626203851652</v>
+      </c>
+      <c r="H71">
+        <v>11.65035805405676</v>
+      </c>
+      <c r="I71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="J71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="K71">
+        <v>38.73828551263712</v>
+      </c>
+      <c r="L71">
+        <v>19.25920648726272</v>
+      </c>
+      <c r="M71">
+        <v>0.3171599010387253</v>
+      </c>
+      <c r="N71">
+        <v>0.4979991872208411</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0.0002466999999910513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.574501295849</v>
+      </c>
+      <c r="F72">
+        <v>9.641297964014434</v>
+      </c>
+      <c r="G72">
+        <v>166.6756295306865</v>
+      </c>
+      <c r="H72">
+        <v>12.94502564554852</v>
+      </c>
+      <c r="I72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="J72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="K72">
+        <v>149.960564089326</v>
+      </c>
+      <c r="L72">
+        <v>9.34662887944188</v>
+      </c>
+      <c r="M72">
+        <v>0.3476047566798111</v>
+      </c>
+      <c r="N72">
+        <v>0.1750644978692948</v>
+      </c>
+      <c r="O72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P72">
+        <v>0.0002664999999808515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.2153015748648967</v>
+      </c>
+      <c r="F73">
+        <v>9.687795561159263</v>
+      </c>
+      <c r="G73">
+        <v>33.22900874489529</v>
+      </c>
+      <c r="H73">
+        <v>6.753509677542384</v>
+      </c>
+      <c r="I73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="J73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="K73">
+        <v>22.18440390228699</v>
+      </c>
+      <c r="L73">
+        <v>14.9576998120122</v>
+      </c>
+      <c r="M73">
+        <v>0.2600934569208446</v>
+      </c>
+      <c r="N73">
+        <v>0.4986275445739439</v>
+      </c>
+      <c r="O73" t="s">
+        <v>17</v>
+      </c>
+      <c r="P73">
+        <v>0.0002699000000063734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.8407272504671</v>
+      </c>
+      <c r="F74">
+        <v>9.394854587498822</v>
+      </c>
+      <c r="G74">
+        <v>18.4199450167232</v>
+      </c>
+      <c r="H74">
+        <v>10.72913884430811</v>
+      </c>
+      <c r="I74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="J74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="K74">
+        <v>15.3461545033152</v>
+      </c>
+      <c r="L74">
+        <v>19.69605934235753</v>
+      </c>
+      <c r="M74">
+        <v>0.2704945370087695</v>
+      </c>
+      <c r="N74">
+        <v>0.2763663778323235</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0.0002093999999885909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.711593474345</v>
+      </c>
+      <c r="F75">
+        <v>9.346423200356869</v>
+      </c>
+      <c r="G75">
+        <v>114.8517015687357</v>
+      </c>
+      <c r="H75">
+        <v>8.721704588007182</v>
+      </c>
+      <c r="I75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="J75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="K75">
+        <v>77.61880715099373</v>
+      </c>
+      <c r="L75">
+        <v>10.87316324178964</v>
+      </c>
+      <c r="M75">
+        <v>0.2713788858098171</v>
+      </c>
+      <c r="N75">
+        <v>0.380279522957763</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0.0001958000000001903</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.6958272530962</v>
+      </c>
+      <c r="F76">
+        <v>9.257648254893223</v>
+      </c>
+      <c r="G76">
+        <v>35.39311950788958</v>
+      </c>
+      <c r="H76">
+        <v>11.606618502975</v>
+      </c>
+      <c r="I76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="J76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="K76">
+        <v>27.04835432754128</v>
+      </c>
+      <c r="L76">
+        <v>20.20515486061771</v>
+      </c>
+      <c r="M76">
+        <v>0.2584538406673106</v>
+      </c>
+      <c r="N76">
+        <v>0.3789995436113348</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0.0003142999999852236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>0.3547510669880397</v>
+      </c>
+      <c r="F77">
+        <v>9.655762878190011</v>
+      </c>
+      <c r="G77">
+        <v>106.7404139293787</v>
+      </c>
+      <c r="H77">
+        <v>3.364573825383137</v>
+      </c>
+      <c r="I77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="J77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="K77">
+        <v>40.93579258230446</v>
+      </c>
+      <c r="L77">
+        <v>7.778565529298699</v>
+      </c>
+      <c r="M77">
+        <v>0.2705626611331876</v>
+      </c>
+      <c r="N77">
+        <v>0.608241237089936</v>
+      </c>
+      <c r="O77" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77">
+        <v>0.0002092000000004646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.5298493446405</v>
+      </c>
+      <c r="F78">
+        <v>9.082994471755011</v>
+      </c>
+      <c r="G78">
+        <v>54.63924945578157</v>
+      </c>
+      <c r="H78">
+        <v>11.81462375253383</v>
+      </c>
+      <c r="I78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="J78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="K78">
+        <v>40.78707257195652</v>
+      </c>
+      <c r="L78">
+        <v>19.37705951626273</v>
+      </c>
+      <c r="M78">
+        <v>0.2940668169255881</v>
+      </c>
+      <c r="N78">
+        <v>0.434582373071306</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0.0002294000000233609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>359.8877775739622</v>
+      </c>
+      <c r="F79">
+        <v>9.535779754456643</v>
+      </c>
+      <c r="G79">
+        <v>165.5840273976575</v>
+      </c>
+      <c r="H79">
+        <v>10.08532889016507</v>
+      </c>
+      <c r="I79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="J79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="K79">
+        <v>139.0644400658003</v>
+      </c>
+      <c r="L79">
+        <v>6.356418670841498</v>
+      </c>
+      <c r="M79">
+        <v>0.2656554203492337</v>
+      </c>
+      <c r="N79">
+        <v>0.2649672036539854</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>0.0002047999999774675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9389769313877</v>
+      </c>
+      <c r="F80">
+        <v>9.755965449467254</v>
+      </c>
+      <c r="G80">
+        <v>8.273228897481234</v>
+      </c>
+      <c r="H80">
+        <v>10.10755339487088</v>
+      </c>
+      <c r="I80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="J80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="K80">
+        <v>8.630254019250801</v>
+      </c>
+      <c r="L80">
+        <v>19.3616625387644</v>
+      </c>
+      <c r="M80">
+        <v>0.2702545682271762</v>
+      </c>
+      <c r="N80">
+        <v>0.4099762941972064</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>0.0002050999999880787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>1.658179410385036</v>
+      </c>
+      <c r="F81">
+        <v>8.117946715928303</v>
+      </c>
+      <c r="G81">
+        <v>91.37670644836673</v>
+      </c>
+      <c r="H81">
+        <v>5.538349956924035</v>
+      </c>
+      <c r="I81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="J81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="K81">
+        <v>56.44713782001893</v>
+      </c>
+      <c r="L81">
+        <v>9.658856914634663</v>
+      </c>
+      <c r="M81">
+        <v>0.5115847823928528</v>
+      </c>
+      <c r="N81">
+        <v>1.650741913498518</v>
+      </c>
+      <c r="O81" t="s">
+        <v>19</v>
+      </c>
+      <c r="P81">
+        <v>0.000209600000005139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.0500735319259</v>
+      </c>
+      <c r="F82">
+        <v>9.22432688006832</v>
+      </c>
+      <c r="G82">
+        <v>92.26151147790451</v>
+      </c>
+      <c r="H82">
+        <v>10.70903865063085</v>
+      </c>
+      <c r="I82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="J82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="K82">
+        <v>66.24387524659612</v>
+      </c>
+      <c r="L82">
+        <v>15.14131239210413</v>
+      </c>
+      <c r="M82">
+        <v>0.3877854449023294</v>
+      </c>
+      <c r="N82">
+        <v>0.3572661000920011</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>0.0005682999999976346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.67995017110934</v>
+      </c>
+      <c r="F83">
+        <v>9.524722603657134</v>
+      </c>
+      <c r="G83">
+        <v>65.41516926040056</v>
+      </c>
+      <c r="H83">
+        <v>5.922874415414365</v>
+      </c>
+      <c r="I83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="J83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="K83">
+        <v>38.14215142261982</v>
+      </c>
+      <c r="L83">
+        <v>12.54280101401139</v>
+      </c>
+      <c r="M83">
+        <v>0.2901160643189347</v>
+      </c>
+      <c r="N83">
+        <v>0.7092999891434633</v>
+      </c>
+      <c r="O83" t="s">
+        <v>19</v>
+      </c>
+      <c r="P83">
+        <v>0.0002388999999993757</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.579674798622</v>
+      </c>
+      <c r="F84">
+        <v>9.20542430618803</v>
+      </c>
+      <c r="G84">
+        <v>47.94339088106742</v>
+      </c>
+      <c r="H84">
+        <v>10.12682980607789</v>
+      </c>
+      <c r="I84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="J84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="K84">
+        <v>34.5070524306086</v>
+      </c>
+      <c r="L84">
+        <v>17.87394374137476</v>
+      </c>
+      <c r="M84">
+        <v>0.3098290951061531</v>
+      </c>
+      <c r="N84">
+        <v>0.3527535545215174</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>0.0002157000000124754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>359.5753435569815</v>
+      </c>
+      <c r="F85">
+        <v>9.137605849414829</v>
+      </c>
+      <c r="G85">
+        <v>44.75385010400512</v>
+      </c>
+      <c r="H85">
+        <v>10.49654043926741</v>
+      </c>
+      <c r="I85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="J85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="K85">
+        <v>32.81040703572627</v>
+      </c>
+      <c r="L85">
+        <v>18.40139103395315</v>
+      </c>
+      <c r="M85">
+        <v>0.2930494908780326</v>
+      </c>
+      <c r="N85">
+        <v>0.4034963016715521</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>0.0002458000000160609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.06580610098779141</v>
+      </c>
+      <c r="F86">
+        <v>9.62927339795238</v>
+      </c>
+      <c r="G86">
+        <v>7.285117175285734</v>
+      </c>
+      <c r="H86">
+        <v>7.172261632632145</v>
+      </c>
+      <c r="I86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="J86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="K86">
+        <v>8.315818784573333</v>
+      </c>
+      <c r="L86">
+        <v>15.71537316309677</v>
+      </c>
+      <c r="M86">
+        <v>0.2927158349272871</v>
+      </c>
+      <c r="N86">
+        <v>0.2611488401311114</v>
+      </c>
+      <c r="O86" t="s">
+        <v>18</v>
+      </c>
+      <c r="P86">
+        <v>0.0002039999999965403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>359.9115746394606</v>
+      </c>
+      <c r="F87">
+        <v>9.11072017923917</v>
+      </c>
+      <c r="G87">
+        <v>110.8086411972007</v>
+      </c>
+      <c r="H87">
+        <v>8.028305326739478</v>
+      </c>
+      <c r="I87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="J87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="K87">
+        <v>73.18023989173044</v>
+      </c>
+      <c r="L87">
+        <v>10.61611657127066</v>
+      </c>
+      <c r="M87">
+        <v>0.2912462091003278</v>
+      </c>
+      <c r="N87">
+        <v>0.574197764715331</v>
+      </c>
+      <c r="O87" t="s">
+        <v>17</v>
+      </c>
+      <c r="P87">
+        <v>0.0002280999999868527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>0.2981428594836462</v>
+      </c>
+      <c r="F88">
+        <v>9.749443401344463</v>
+      </c>
+      <c r="G88">
+        <v>37.02045004460006</v>
+      </c>
+      <c r="H88">
+        <v>4.651242381208587</v>
+      </c>
+      <c r="I88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="J88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="K88">
+        <v>21.5712000915811</v>
+      </c>
+      <c r="L88">
+        <v>12.46215858742911</v>
+      </c>
+      <c r="M88">
+        <v>0.2712480680369321</v>
+      </c>
+      <c r="N88">
+        <v>0.6090759782662558</v>
+      </c>
+      <c r="O88" t="s">
+        <v>19</v>
+      </c>
+      <c r="P88">
+        <v>0.0001952000000073895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>359.8138122395735</v>
+      </c>
+      <c r="F89">
+        <v>6.950607768988522</v>
+      </c>
+      <c r="G89">
+        <v>116.1884394125052</v>
+      </c>
+      <c r="H89">
+        <v>9.019883727988384</v>
+      </c>
+      <c r="I89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="J89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="K89">
+        <v>92.33382158586166</v>
+      </c>
+      <c r="L89">
+        <v>10.86964703292933</v>
+      </c>
+      <c r="M89">
+        <v>0.4730122908062138</v>
+      </c>
+      <c r="N89">
+        <v>1.665279888395482</v>
+      </c>
+      <c r="O89" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89">
+        <v>0.0002042000000130884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9465578479241</v>
+      </c>
+      <c r="F90">
+        <v>9.153172248475993</v>
+      </c>
+      <c r="G90">
+        <v>116.0113419257241</v>
+      </c>
+      <c r="H90">
+        <v>8.024654325226454</v>
+      </c>
+      <c r="I90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="J90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="K90">
+        <v>76.73685630623075</v>
+      </c>
+      <c r="L90">
+        <v>10.08509796114889</v>
+      </c>
+      <c r="M90">
+        <v>0.2846711458090226</v>
+      </c>
+      <c r="N90">
+        <v>0.5545943584272253</v>
+      </c>
+      <c r="O90" t="s">
+        <v>17</v>
+      </c>
+      <c r="P90">
+        <v>0.0001900999999975284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.8468650132735551</v>
+      </c>
+      <c r="F91">
+        <v>9.147209203142504</v>
+      </c>
+      <c r="G91">
+        <v>92.66697636861946</v>
+      </c>
+      <c r="H91">
+        <v>4.773541358533781</v>
+      </c>
+      <c r="I91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="J91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="K91">
+        <v>48.29154844265845</v>
+      </c>
+      <c r="L91">
+        <v>9.413688487348221</v>
+      </c>
+      <c r="M91">
+        <v>0.3226725792972739</v>
+      </c>
+      <c r="N91">
+        <v>1.010657667982658</v>
+      </c>
+      <c r="O91" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91">
+        <v>0.00019129999998313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>0.1122433340996691</v>
+      </c>
+      <c r="F92">
+        <v>9.624464947223098</v>
+      </c>
+      <c r="G92">
+        <v>26.3485918154465</v>
+      </c>
+      <c r="H92">
+        <v>4.437667594199342</v>
+      </c>
+      <c r="I92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="J92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="K92">
+        <v>16.78302613293435</v>
+      </c>
+      <c r="L92">
+        <v>12.30414590515402</v>
+      </c>
+      <c r="M92">
+        <v>0.2808784717445766</v>
+      </c>
+      <c r="N92">
+        <v>0.4651790831822091</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0.0002263000000084503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>0.3030605088673829</v>
+      </c>
+      <c r="F93">
+        <v>9.620950345147378</v>
+      </c>
+      <c r="G93">
+        <v>36.04409522716269</v>
+      </c>
+      <c r="H93">
+        <v>5.996293181119823</v>
+      </c>
+      <c r="I93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="J93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="K93">
+        <v>23.04702387938912</v>
+      </c>
+      <c r="L93">
+        <v>13.9347371606772</v>
+      </c>
+      <c r="M93">
+        <v>0.2555669651815568</v>
+      </c>
+      <c r="N93">
+        <v>0.5772869971472208</v>
+      </c>
+      <c r="O93" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93">
+        <v>0.0002018000000134634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>359.8848503791089</v>
+      </c>
+      <c r="F94">
+        <v>9.641221452167903</v>
+      </c>
+      <c r="G94">
+        <v>159.5258960464179</v>
+      </c>
+      <c r="H94">
+        <v>11.9206388520614</v>
+      </c>
+      <c r="I94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="J94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="K94">
+        <v>136.0133264560104</v>
+      </c>
+      <c r="L94">
+        <v>8.86211039168564</v>
+      </c>
+      <c r="M94">
+        <v>0.243556930022643</v>
+      </c>
+      <c r="N94">
+        <v>0.205859926672789</v>
+      </c>
+      <c r="O94" t="s">
+        <v>18</v>
+      </c>
+      <c r="P94">
+        <v>0.0001896999999928539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.1849009598281</v>
+      </c>
+      <c r="F95">
+        <v>9.117980264734753</v>
+      </c>
+      <c r="G95">
+        <v>107.3560925802056</v>
+      </c>
+      <c r="H95">
+        <v>9.969945486375776</v>
+      </c>
+      <c r="I95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="J95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="K95">
+        <v>76.75953629898068</v>
+      </c>
+      <c r="L95">
+        <v>12.80021496729631</v>
+      </c>
+      <c r="M95">
+        <v>0.359378171893377</v>
+      </c>
+      <c r="N95">
+        <v>0.4666877601239202</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0.000224400000007563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.6282733922433</v>
+      </c>
+      <c r="F96">
+        <v>8.760477242924871</v>
+      </c>
+      <c r="G96">
+        <v>128.5314537318014</v>
+      </c>
+      <c r="H96">
+        <v>8.67981153179778</v>
+      </c>
+      <c r="I96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="J96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="K96">
+        <v>92.13033677771887</v>
+      </c>
+      <c r="L96">
+        <v>9.26793220667315</v>
+      </c>
+      <c r="M96">
+        <v>0.3389478499955653</v>
+      </c>
+      <c r="N96">
+        <v>0.7299696755639473</v>
+      </c>
+      <c r="O96" t="s">
+        <v>19</v>
+      </c>
+      <c r="P96">
+        <v>0.0002345000000048003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>0.3321444497762412</v>
+      </c>
+      <c r="F97">
+        <v>9.747102178407614</v>
+      </c>
+      <c r="G97">
+        <v>41.56510117320629</v>
+      </c>
+      <c r="H97">
+        <v>4.578139402936893</v>
+      </c>
+      <c r="I97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="J97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="K97">
+        <v>23.43212564974246</v>
+      </c>
+      <c r="L97">
+        <v>12.25137427861553</v>
+      </c>
+      <c r="M97">
+        <v>0.2547816636693012</v>
+      </c>
+      <c r="N97">
+        <v>0.5531100461745149</v>
+      </c>
+      <c r="O97" t="s">
+        <v>17</v>
+      </c>
+      <c r="P97">
+        <v>0.0002767000000005737</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>359.965076112617</v>
+      </c>
+      <c r="F98">
+        <v>9.157291956547239</v>
+      </c>
+      <c r="G98">
+        <v>37.68666176304876</v>
+      </c>
+      <c r="H98">
+        <v>12.43956697071328</v>
+      </c>
+      <c r="I98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="J98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="K98">
+        <v>29.27834709544506</v>
+      </c>
+      <c r="L98">
+        <v>21.04206234112342</v>
+      </c>
+      <c r="M98">
+        <v>0.2748442442145876</v>
+      </c>
+      <c r="N98">
+        <v>0.5398194376830064</v>
+      </c>
+      <c r="O98" t="s">
+        <v>17</v>
+      </c>
+      <c r="P98">
+        <v>0.0002058000000033644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.875593875646003</v>
+      </c>
+      <c r="F99">
+        <v>8.822442113899619</v>
+      </c>
+      <c r="G99">
+        <v>151.7532124193743</v>
+      </c>
+      <c r="H99">
+        <v>12.38346335874963</v>
+      </c>
+      <c r="I99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="J99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="K99">
+        <v>129.5494026397744</v>
+      </c>
+      <c r="L99">
+        <v>10.81364907486537</v>
+      </c>
+      <c r="M99">
+        <v>0.4904092844684576</v>
+      </c>
+      <c r="N99">
+        <v>0.7773376282509097</v>
+      </c>
+      <c r="O99" t="s">
+        <v>19</v>
+      </c>
+      <c r="P99">
+        <v>0.0001889999999775682</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>359.7631414593671</v>
+      </c>
+      <c r="F100">
+        <v>8.649688105442248</v>
+      </c>
+      <c r="G100">
+        <v>131.2291246795722</v>
+      </c>
+      <c r="H100">
+        <v>8.060275093138321</v>
+      </c>
+      <c r="I100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="J100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="K100">
+        <v>92.32561728703128</v>
+      </c>
+      <c r="L100">
+        <v>8.415994492218902</v>
+      </c>
+      <c r="M100">
+        <v>0.3614000609731741</v>
+      </c>
+      <c r="N100">
+        <v>0.7992720079769515</v>
+      </c>
+      <c r="O100" t="s">
+        <v>19</v>
+      </c>
+      <c r="P100">
+        <v>0.0001967999999976655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>0.07117942135097972</v>
+      </c>
+      <c r="F101">
+        <v>8.901587985691016</v>
+      </c>
+      <c r="G101">
+        <v>120.8601704571554</v>
+      </c>
+      <c r="H101">
+        <v>7.452402854932219</v>
+      </c>
+      <c r="I101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="J101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="K101">
+        <v>79.14878518318314</v>
+      </c>
+      <c r="L101">
+        <v>9.019553183115027</v>
+      </c>
+      <c r="M101">
+        <v>0.273895486617762</v>
+      </c>
+      <c r="N101">
+        <v>0.7131138688788659</v>
+      </c>
+      <c r="O101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P101">
+        <v>0.0002101000000038766</v>
       </c>
     </row>
   </sheetData>
